--- a/out/Analysis/Dataset_Labelling.xlsx
+++ b/out/Analysis/Dataset_Labelling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailuc-my.sharepoint.com/personal/wang2ba_ucmail_uc_edu/Documents/group/students/prateek_kharangate/fault_hunter_fall_2023/Labeling/Assembly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6424D6FB-4D43-405B-A1EA-8F9E5DFB50D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DC0B784-80A5-4BAC-9585-41152DE7F5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="763">
   <si>
     <t>Assembly Vulnerability Detection</t>
   </si>
@@ -1326,9 +1326,6 @@
   </si>
   <si>
     <t>if (foo(&amp;password) == 1) { ... }</t>
-  </si>
-  <si>
-    <t>78-79</t>
   </si>
   <si>
     <t>cmp r3, #1      bne .L5</t>
@@ -3827,6 +3824,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3868,9 +3868,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -8534,55 +8531,55 @@
   <sheetData>
     <row r="1" spans="3:24" ht="15.75" thickBot="1"/>
     <row r="2" spans="3:24" ht="24" thickBot="1">
-      <c r="C2" s="221" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="222"/>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="222"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="222"/>
-      <c r="X2" s="223"/>
+      <c r="C2" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="223"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="223"/>
+      <c r="S2" s="223"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="224"/>
     </row>
     <row r="3" spans="3:24" ht="15.75" thickBot="1"/>
     <row r="4" spans="3:24" ht="15.75" thickBot="1">
-      <c r="C4" s="215" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
-      <c r="J4" s="217"/>
-      <c r="O4" s="218" t="s">
+      <c r="C4" s="216" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="218"/>
+      <c r="O4" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="219"/>
-      <c r="Q4" s="219"/>
-      <c r="R4" s="219"/>
-      <c r="S4" s="219"/>
-      <c r="T4" s="219"/>
-      <c r="U4" s="219"/>
-      <c r="V4" s="219"/>
-      <c r="W4" s="219"/>
-      <c r="X4" s="220"/>
+      <c r="P4" s="220"/>
+      <c r="Q4" s="220"/>
+      <c r="R4" s="220"/>
+      <c r="S4" s="220"/>
+      <c r="T4" s="220"/>
+      <c r="U4" s="220"/>
+      <c r="V4" s="220"/>
+      <c r="W4" s="220"/>
+      <c r="X4" s="221"/>
     </row>
     <row r="5" spans="3:24" ht="15.75" thickBot="1">
       <c r="C5" s="16" t="s">
@@ -9657,10 +9654,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="68" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="95" t="s">
         <v>564</v>
-      </c>
-      <c r="E3" s="95" t="s">
-        <v>565</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>52</v>
@@ -9675,10 +9672,10 @@
         <v>3</v>
       </c>
       <c r="K3" s="68" t="s">
+        <v>563</v>
+      </c>
+      <c r="L3" s="95" t="s">
         <v>564</v>
-      </c>
-      <c r="L3" s="95" t="s">
-        <v>565</v>
       </c>
       <c r="M3" s="79" t="s">
         <v>52</v>
@@ -9693,10 +9690,10 @@
         <v>3</v>
       </c>
       <c r="R3" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="S3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="S3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="T3" s="71" t="s">
         <v>52</v>
@@ -9711,10 +9708,10 @@
         <v>3</v>
       </c>
       <c r="Y3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="Z3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="AA3" s="71" t="s">
         <v>52</v>
@@ -9729,10 +9726,10 @@
         <v>3</v>
       </c>
       <c r="AF3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="AG3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="AG3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="AH3" s="71" t="s">
         <v>52</v>
@@ -9747,10 +9744,10 @@
         <v>3</v>
       </c>
       <c r="AM3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="AN3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="AN3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="AO3" s="71" t="s">
         <v>52</v>
@@ -9765,10 +9762,10 @@
         <v>3</v>
       </c>
       <c r="AT3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="AU3" s="93" t="s">
         <v>564</v>
-      </c>
-      <c r="AU3" s="93" t="s">
-        <v>565</v>
       </c>
       <c r="AV3" s="70" t="s">
         <v>52</v>
@@ -9783,10 +9780,10 @@
         <v>3</v>
       </c>
       <c r="BA3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="BB3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="BB3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="BC3" s="71" t="s">
         <v>52</v>
@@ -9801,10 +9798,10 @@
         <v>3</v>
       </c>
       <c r="BH3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="BI3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="BI3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="BJ3" s="71" t="s">
         <v>52</v>
@@ -9819,10 +9816,10 @@
         <v>3</v>
       </c>
       <c r="BO3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="BP3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="BP3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="BQ3" s="71" t="s">
         <v>52</v>
@@ -9837,10 +9834,10 @@
         <v>3</v>
       </c>
       <c r="BV3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="BW3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="BW3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="BX3" s="71" t="s">
         <v>52</v>
@@ -9855,10 +9852,10 @@
         <v>3</v>
       </c>
       <c r="CC3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="CD3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="CD3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="CE3" s="71" t="s">
         <v>52</v>
@@ -9873,10 +9870,10 @@
         <v>3</v>
       </c>
       <c r="CJ3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="CK3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="CK3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="CL3" s="71" t="s">
         <v>52</v>
@@ -9891,10 +9888,10 @@
         <v>3</v>
       </c>
       <c r="CQ3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="CR3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="CR3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="CS3" s="71" t="s">
         <v>52</v>
@@ -9908,7 +9905,7 @@
     </row>
     <row r="4" spans="3:99" ht="60">
       <c r="C4" s="97" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="100"/>
@@ -9916,7 +9913,7 @@
       <c r="G4" s="98"/>
       <c r="H4" s="98"/>
       <c r="J4" s="97" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K4" s="106"/>
       <c r="L4" s="100"/>
@@ -9924,7 +9921,7 @@
       <c r="N4" s="98"/>
       <c r="O4" s="98"/>
       <c r="Q4" s="91" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R4" s="92" t="s">
         <v>289</v>
@@ -9938,13 +9935,13 @@
       <c r="U4" s="92"/>
       <c r="V4" s="92"/>
       <c r="X4" s="69" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Y4" s="98" t="s">
         <v>269</v>
       </c>
       <c r="Z4" s="100" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA4" s="98"/>
       <c r="AB4" s="98" t="b">
@@ -9952,7 +9949,7 @@
       </c>
       <c r="AC4" s="98"/>
       <c r="AE4" s="69" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AF4" s="104"/>
       <c r="AG4" s="98"/>
@@ -9960,27 +9957,27 @@
       <c r="AI4" s="98"/>
       <c r="AJ4" s="98"/>
       <c r="AL4" s="101" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM4" s="115">
         <v>43</v>
       </c>
       <c r="AN4" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AO4" s="91"/>
       <c r="AP4" s="92" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AQ4" s="92"/>
       <c r="AS4" s="101" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AT4" s="91" t="s">
         <v>308</v>
       </c>
       <c r="AU4" s="103" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AV4" s="101" t="b">
         <v>1</v>
@@ -9988,13 +9985,13 @@
       <c r="AW4" s="101"/>
       <c r="AX4" s="91"/>
       <c r="AZ4" s="69" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="BA4" s="98" t="s">
         <v>282</v>
       </c>
       <c r="BB4" s="100" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="BC4" s="98" t="b">
         <v>1</v>
@@ -10002,7 +9999,7 @@
       <c r="BD4" s="98"/>
       <c r="BE4" s="98"/>
       <c r="BG4" s="97" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="BH4" s="97"/>
       <c r="BI4" s="97"/>
@@ -10010,7 +10007,7 @@
       <c r="BK4" s="97"/>
       <c r="BL4" s="69"/>
       <c r="BN4" s="69" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BO4" s="98"/>
       <c r="BP4" s="98"/>
@@ -10018,7 +10015,7 @@
       <c r="BR4" s="98"/>
       <c r="BS4" s="98"/>
       <c r="BU4" s="69" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BV4" s="98"/>
       <c r="BW4" s="98"/>
@@ -10026,7 +10023,7 @@
       <c r="BY4" s="98"/>
       <c r="BZ4" s="98"/>
       <c r="CB4" s="97" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="CC4" s="97"/>
       <c r="CD4" s="97"/>
@@ -10034,27 +10031,27 @@
       <c r="CF4" s="69"/>
       <c r="CG4" s="98"/>
       <c r="CI4" s="101" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="CJ4" s="119" t="s">
         <v>135</v>
       </c>
       <c r="CK4" s="118" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="CL4" s="92"/>
       <c r="CM4" s="92" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="CN4" s="92"/>
       <c r="CP4" s="101" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="CQ4" s="91" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="CR4" s="94" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="CS4" s="92"/>
       <c r="CT4" s="92" t="b">
@@ -10065,10 +10062,10 @@
     <row r="5" spans="3:99" ht="45">
       <c r="Q5" s="81"/>
       <c r="R5" s="76" t="s">
+        <v>735</v>
+      </c>
+      <c r="S5" s="90" t="s">
         <v>736</v>
-      </c>
-      <c r="S5" s="90" t="s">
-        <v>737</v>
       </c>
       <c r="T5" s="76" t="b">
         <v>1</v>
@@ -10080,7 +10077,7 @@
         <v>258</v>
       </c>
       <c r="AN5" s="86" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AO5" s="81" t="b">
         <v>1</v>
@@ -10106,7 +10103,7 @@
         <v>315</v>
       </c>
       <c r="CK5" s="82" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CL5" s="73"/>
       <c r="CM5" s="73" t="b">
@@ -10118,7 +10115,7 @@
         <v>177</v>
       </c>
       <c r="CR5" s="89" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="CS5" s="73"/>
       <c r="CT5" s="73" t="b">
@@ -10129,10 +10126,10 @@
     <row r="6" spans="3:99" ht="30">
       <c r="AS6" s="72"/>
       <c r="AT6" s="80" t="s">
+        <v>738</v>
+      </c>
+      <c r="AU6" s="67" t="s">
         <v>739</v>
-      </c>
-      <c r="AU6" s="67" t="s">
-        <v>740</v>
       </c>
       <c r="AV6" s="72" t="b">
         <v>1</v>
@@ -10141,10 +10138,10 @@
       <c r="AX6" s="80"/>
       <c r="CI6" s="74"/>
       <c r="CJ6" s="74" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="CK6" s="83" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="CL6" s="76"/>
       <c r="CM6" s="76" t="b">
@@ -10153,10 +10150,10 @@
       <c r="CN6" s="76"/>
       <c r="CP6" s="74"/>
       <c r="CQ6" s="81" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="CR6" s="90" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="CS6" s="76"/>
       <c r="CT6" s="76" t="b">
@@ -10167,10 +10164,10 @@
     <row r="7" spans="3:99" ht="30">
       <c r="AS7" s="72"/>
       <c r="AT7" s="80" t="s">
+        <v>742</v>
+      </c>
+      <c r="AU7" s="67" t="s">
         <v>743</v>
-      </c>
-      <c r="AU7" s="67" t="s">
-        <v>744</v>
       </c>
       <c r="AV7" s="72" t="b">
         <v>1</v>
@@ -10181,10 +10178,10 @@
     <row r="8" spans="3:99" ht="30">
       <c r="AS8" s="72"/>
       <c r="AT8" s="80" t="s">
+        <v>744</v>
+      </c>
+      <c r="AU8" s="67" t="s">
         <v>745</v>
-      </c>
-      <c r="AU8" s="67" t="s">
-        <v>746</v>
       </c>
       <c r="AV8" s="72" t="b">
         <v>1</v>
@@ -10195,10 +10192,10 @@
     <row r="9" spans="3:99" ht="30">
       <c r="AS9" s="72"/>
       <c r="AT9" s="117" t="s">
+        <v>746</v>
+      </c>
+      <c r="AU9" s="67" t="s">
         <v>747</v>
-      </c>
-      <c r="AU9" s="67" t="s">
-        <v>748</v>
       </c>
       <c r="AV9" s="72" t="b">
         <v>1</v>
@@ -10209,40 +10206,40 @@
     <row r="10" spans="3:99" ht="30">
       <c r="AS10" s="72"/>
       <c r="AT10" s="80" t="s">
+        <v>748</v>
+      </c>
+      <c r="AU10" s="67" t="s">
         <v>749</v>
-      </c>
-      <c r="AU10" s="67" t="s">
-        <v>750</v>
       </c>
       <c r="AV10" s="72"/>
       <c r="AW10" s="72" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AX10" s="80"/>
     </row>
     <row r="11" spans="3:99" ht="30">
       <c r="AS11" s="72"/>
       <c r="AT11" s="80" t="s">
+        <v>750</v>
+      </c>
+      <c r="AU11" s="67" t="s">
         <v>751</v>
       </c>
-      <c r="AU11" s="67" t="s">
-        <v>752</v>
-      </c>
       <c r="AV11" s="72" t="b">
         <v>1</v>
       </c>
       <c r="AW11" s="72" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AX11" s="80"/>
     </row>
     <row r="12" spans="3:99" ht="30">
       <c r="AS12" s="72"/>
       <c r="AT12" s="80" t="s">
+        <v>752</v>
+      </c>
+      <c r="AU12" s="67" t="s">
         <v>753</v>
-      </c>
-      <c r="AU12" s="67" t="s">
-        <v>754</v>
       </c>
       <c r="AV12" s="72" t="b">
         <v>1</v>
@@ -10258,7 +10255,7 @@
         <v>159</v>
       </c>
       <c r="AU13" s="67" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AV13" s="72" t="b">
         <v>1</v>
@@ -10269,10 +10266,10 @@
     <row r="14" spans="3:99" ht="30">
       <c r="AS14" s="72"/>
       <c r="AT14" s="80" t="s">
+        <v>755</v>
+      </c>
+      <c r="AU14" s="67" t="s">
         <v>756</v>
-      </c>
-      <c r="AU14" s="67" t="s">
-        <v>757</v>
       </c>
       <c r="AV14" s="72" t="b">
         <v>1</v>
@@ -10283,10 +10280,10 @@
     <row r="15" spans="3:99" ht="30">
       <c r="AS15" s="72"/>
       <c r="AT15" s="80" t="s">
+        <v>757</v>
+      </c>
+      <c r="AU15" s="67" t="s">
         <v>758</v>
-      </c>
-      <c r="AU15" s="67" t="s">
-        <v>759</v>
       </c>
       <c r="AV15" s="72" t="b">
         <v>1</v>
@@ -10297,40 +10294,40 @@
     <row r="16" spans="3:99" ht="30">
       <c r="AS16" s="72"/>
       <c r="AT16" s="80" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AU16" s="67" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AV16" s="72"/>
       <c r="AW16" s="72" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AX16" s="80"/>
     </row>
     <row r="17" spans="45:50" ht="30">
       <c r="AS17" s="72"/>
       <c r="AT17" s="80" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AU17" s="67" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AV17" s="72" t="b">
         <v>1</v>
       </c>
       <c r="AW17" s="72" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AX17" s="80"/>
     </row>
     <row r="18" spans="45:50" ht="30">
       <c r="AS18" s="74"/>
       <c r="AT18" s="81" t="s">
+        <v>761</v>
+      </c>
+      <c r="AU18" s="75" t="s">
         <v>762</v>
-      </c>
-      <c r="AU18" s="75" t="s">
-        <v>763</v>
       </c>
       <c r="AV18" s="74" t="b">
         <v>1</v>
@@ -24230,8 +24227,8 @@
   <dimension ref="A1:Q198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E186" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I198" sqref="I198"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E68" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H77" sqref="H77"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -24259,58 +24256,58 @@
     <row r="1" spans="1:17" s="126" customFormat="1">
       <c r="A1" s="91"/>
       <c r="B1" s="92"/>
-      <c r="C1" s="227" t="s">
+      <c r="C1" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224" t="s">
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225" t="s">
         <v>335</v>
       </c>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224" t="s">
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225" t="s">
         <v>336</v>
       </c>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="225"/>
+      <c r="P1" s="225"/>
+      <c r="Q1" s="225"/>
     </row>
     <row r="2" spans="1:17" s="127" customFormat="1">
       <c r="A2" s="80"/>
       <c r="B2" s="73"/>
-      <c r="C2" s="225" t="s">
+      <c r="C2" s="226" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226" t="s">
+      <c r="D2" s="227"/>
+      <c r="E2" s="227" t="s">
         <v>338</v>
       </c>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226" t="s">
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227" t="s">
         <v>337</v>
       </c>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226" t="s">
+      <c r="I2" s="227"/>
+      <c r="J2" s="227" t="s">
         <v>338</v>
       </c>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226" t="s">
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227" t="s">
         <v>337</v>
       </c>
-      <c r="N2" s="226"/>
-      <c r="O2" s="226" t="s">
+      <c r="N2" s="227"/>
+      <c r="O2" s="227" t="s">
         <v>338</v>
       </c>
-      <c r="P2" s="226"/>
-      <c r="Q2" s="226"/>
+      <c r="P2" s="227"/>
+      <c r="Q2" s="227"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="81"/>
@@ -26161,7 +26158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="30">
+    <row r="76" spans="1:17" ht="30.75">
       <c r="C76" s="109" t="s">
         <v>413</v>
       </c>
@@ -26172,10 +26169,10 @@
         <v>1</v>
       </c>
       <c r="H76" s="134" t="s">
+        <v>243</v>
+      </c>
+      <c r="I76" s="89" t="s">
         <v>415</v>
-      </c>
-      <c r="I76" s="89" t="s">
-        <v>416</v>
       </c>
       <c r="J76" t="b">
         <v>1</v>
@@ -26184,7 +26181,7 @@
         <v>180</v>
       </c>
       <c r="N76" s="89" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O76" t="b">
         <v>1</v>
@@ -26268,7 +26265,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="89" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F79" s="67" t="b">
         <v>1</v>
@@ -26286,7 +26283,7 @@
         <v>269</v>
       </c>
       <c r="N79" s="89" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
@@ -26297,7 +26294,7 @@
         <v>11</v>
       </c>
       <c r="D80" s="89" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F80" s="67" t="b">
         <v>1</v>
@@ -26317,7 +26314,7 @@
         <v>17</v>
       </c>
       <c r="D81" s="89" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -26326,7 +26323,7 @@
         <v>85</v>
       </c>
       <c r="I81" s="89" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J81" t="b">
         <v>1</v>
@@ -26410,7 +26407,7 @@
         <v>12</v>
       </c>
       <c r="D84" s="89" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F84" s="67" t="b">
         <v>1</v>
@@ -26503,16 +26500,16 @@
         <v>3</v>
       </c>
       <c r="D87" s="89" t="s">
+        <v>422</v>
+      </c>
+      <c r="F87" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" s="134" t="s">
         <v>423</v>
       </c>
-      <c r="F87" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87" s="134" t="s">
+      <c r="I87" s="89" t="s">
         <v>424</v>
-      </c>
-      <c r="I87" s="89" t="s">
-        <v>425</v>
       </c>
       <c r="K87" t="b">
         <v>1</v>
@@ -26523,16 +26520,16 @@
         <v>4</v>
       </c>
       <c r="D88" s="89" t="s">
+        <v>425</v>
+      </c>
+      <c r="F88" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="134" t="s">
         <v>426</v>
       </c>
-      <c r="F88" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="134" t="s">
+      <c r="I88" s="89" t="s">
         <v>427</v>
-      </c>
-      <c r="I88" s="89" t="s">
-        <v>428</v>
       </c>
       <c r="K88" t="b">
         <v>1</v>
@@ -26543,13 +26540,13 @@
         <v>7</v>
       </c>
       <c r="D89" s="89" t="s">
+        <v>428</v>
+      </c>
+      <c r="F89" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="134" t="s">
         <v>429</v>
-      </c>
-      <c r="F89" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="134" t="s">
-        <v>430</v>
       </c>
       <c r="I89" s="89" t="s">
         <v>384</v>
@@ -26563,7 +26560,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="89" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F90" s="67" t="b">
         <v>1</v>
@@ -26583,7 +26580,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="89" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F91" s="67" t="b">
         <v>1</v>
@@ -26592,7 +26589,7 @@
         <v>247</v>
       </c>
       <c r="I91" s="89" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K91" t="b">
         <v>1</v>
@@ -26759,10 +26756,10 @@
     </row>
     <row r="98" spans="1:17" ht="45">
       <c r="C98" s="109" t="s">
+        <v>433</v>
+      </c>
+      <c r="D98" s="89" t="s">
         <v>434</v>
-      </c>
-      <c r="D98" s="89" t="s">
-        <v>435</v>
       </c>
       <c r="G98" s="132" t="b">
         <v>1</v>
@@ -26771,7 +26768,7 @@
         <v>255</v>
       </c>
       <c r="I98" s="89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L98" s="73" t="b">
         <v>1</v>
@@ -26780,7 +26777,7 @@
         <v>273</v>
       </c>
       <c r="N98" s="89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q98" s="73" t="b">
         <v>1</v>
@@ -26800,7 +26797,7 @@
         <v>258</v>
       </c>
       <c r="N99" s="89" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O99" t="b">
         <v>1</v>
@@ -26884,7 +26881,7 @@
         <v>273</v>
       </c>
       <c r="N102" s="89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q102" s="73" t="b">
         <v>1</v>
@@ -26915,7 +26912,7 @@
         <v>258</v>
       </c>
       <c r="N104" s="89" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O104" t="b">
         <v>1</v>
@@ -26923,10 +26920,10 @@
     </row>
     <row r="105" spans="1:17" ht="30">
       <c r="C105" s="109" t="s">
+        <v>438</v>
+      </c>
+      <c r="D105" s="89" t="s">
         <v>439</v>
-      </c>
-      <c r="D105" s="89" t="s">
-        <v>440</v>
       </c>
       <c r="E105" t="b">
         <v>1</v>
@@ -27016,10 +27013,10 @@
         <v>151</v>
       </c>
       <c r="C108" s="109" t="s">
+        <v>440</v>
+      </c>
+      <c r="D108" s="89" t="s">
         <v>441</v>
-      </c>
-      <c r="D108" s="89" t="s">
-        <v>442</v>
       </c>
       <c r="F108" s="67" t="b">
         <v>1</v>
@@ -27027,10 +27024,10 @@
     </row>
     <row r="109" spans="1:17" ht="30">
       <c r="C109" s="109" t="s">
+        <v>442</v>
+      </c>
+      <c r="D109" s="89" t="s">
         <v>443</v>
-      </c>
-      <c r="D109" s="89" t="s">
-        <v>444</v>
       </c>
       <c r="E109" t="b">
         <v>1</v>
@@ -27039,7 +27036,7 @@
         <v>152</v>
       </c>
       <c r="I109" s="89" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J109" t="b">
         <v>1</v>
@@ -27048,7 +27045,7 @@
         <v>320</v>
       </c>
       <c r="N109" s="89" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O109" t="b">
         <v>1</v>
@@ -27068,7 +27065,7 @@
         <v>66</v>
       </c>
       <c r="N110" s="89" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O110" t="b">
         <v>1</v>
@@ -27076,10 +27073,10 @@
     </row>
     <row r="111" spans="1:17" ht="45">
       <c r="C111" s="109" t="s">
+        <v>447</v>
+      </c>
+      <c r="D111" s="89" t="s">
         <v>448</v>
-      </c>
-      <c r="D111" s="89" t="s">
-        <v>449</v>
       </c>
       <c r="E111" t="b">
         <v>1</v>
@@ -27088,7 +27085,7 @@
         <v>155</v>
       </c>
       <c r="I111" s="89" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J111" t="b">
         <v>1</v>
@@ -27097,7 +27094,7 @@
         <v>322</v>
       </c>
       <c r="N111" s="89" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O111" t="b">
         <v>1</v>
@@ -27108,7 +27105,7 @@
         <v>159</v>
       </c>
       <c r="I112" s="89" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J112" t="b">
         <v>1</v>
@@ -27117,7 +27114,7 @@
         <v>308</v>
       </c>
       <c r="N112" s="89" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O112" t="b">
         <v>1</v>
@@ -27137,7 +27134,7 @@
         <v>313</v>
       </c>
       <c r="N113" s="89" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O113" t="b">
         <v>1</v>
@@ -27148,7 +27145,7 @@
         <v>163</v>
       </c>
       <c r="I114" s="89" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J114" t="b">
         <v>1</v>
@@ -27157,7 +27154,7 @@
         <v>311</v>
       </c>
       <c r="N114" s="89" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O114" s="72" t="b">
         <v>1</v>
@@ -27177,7 +27174,7 @@
         <v>317</v>
       </c>
       <c r="N115" s="89" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q115" s="73" t="b">
         <v>1</v>
@@ -27188,7 +27185,7 @@
         <v>165</v>
       </c>
       <c r="I116" s="89" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J116" t="b">
         <v>1</v>
@@ -27197,7 +27194,7 @@
         <v>291</v>
       </c>
       <c r="N116" s="89" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O116" t="b">
         <v>1</v>
@@ -27208,7 +27205,7 @@
         <v>167</v>
       </c>
       <c r="I117" s="89" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J117" t="b">
         <v>1</v>
@@ -27219,7 +27216,7 @@
         <v>169</v>
       </c>
       <c r="I118" s="89" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J118" t="b">
         <v>1</v>
@@ -27228,7 +27225,7 @@
         <v>315</v>
       </c>
       <c r="N118" s="89" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O118" t="b">
         <v>1</v>
@@ -27309,7 +27306,7 @@
         <v>63</v>
       </c>
       <c r="C121" s="109" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D121" s="89" t="s">
         <v>383</v>
@@ -27329,10 +27326,10 @@
     </row>
     <row r="122" spans="1:17" ht="45">
       <c r="C122" s="109" t="s">
+        <v>463</v>
+      </c>
+      <c r="D122" s="89" t="s">
         <v>464</v>
-      </c>
-      <c r="D122" s="89" t="s">
-        <v>465</v>
       </c>
       <c r="E122" t="b">
         <v>1</v>
@@ -27341,7 +27338,7 @@
         <v>64</v>
       </c>
       <c r="I122" s="89" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J122" t="b">
         <v>1</v>
@@ -27350,7 +27347,7 @@
         <v>282</v>
       </c>
       <c r="N122" s="89" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O122" t="b">
         <v>1</v>
@@ -27358,7 +27355,7 @@
     </row>
     <row r="123" spans="1:17" ht="30">
       <c r="C123" s="109" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D123" s="89" t="s">
         <v>383</v>
@@ -27381,7 +27378,7 @@
         <v>131</v>
       </c>
       <c r="D124" s="89" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F124" s="67" t="b">
         <v>1</v>
@@ -27390,7 +27387,7 @@
         <v>398</v>
       </c>
       <c r="I124" s="89" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K124" t="b">
         <v>1</v>
@@ -27398,7 +27395,7 @@
     </row>
     <row r="125" spans="1:17" ht="30">
       <c r="C125" s="109" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D125" s="89" t="s">
         <v>397</v>
@@ -27407,7 +27404,7 @@
         <v>1</v>
       </c>
       <c r="H125" s="134" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I125" s="89" t="s">
         <v>399</v>
@@ -27421,7 +27418,7 @@
         <v>66</v>
       </c>
       <c r="I126" s="89" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J126" t="b">
         <v>1</v>
@@ -27429,10 +27426,10 @@
     </row>
     <row r="127" spans="1:17" ht="30">
       <c r="C127" s="109" t="s">
+        <v>472</v>
+      </c>
+      <c r="D127" s="89" t="s">
         <v>473</v>
-      </c>
-      <c r="D127" s="89" t="s">
-        <v>474</v>
       </c>
       <c r="F127" s="67" t="b">
         <v>1</v>
@@ -27441,7 +27438,7 @@
         <v>224</v>
       </c>
       <c r="I127" s="89" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K127" t="b">
         <v>1</v>
@@ -27449,19 +27446,19 @@
     </row>
     <row r="128" spans="1:17" ht="30">
       <c r="C128" s="109" t="s">
+        <v>475</v>
+      </c>
+      <c r="D128" s="89" t="s">
         <v>476</v>
       </c>
-      <c r="D128" s="89" t="s">
+      <c r="F128" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="134" t="s">
         <v>477</v>
       </c>
-      <c r="F128" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="134" t="s">
+      <c r="I128" s="89" t="s">
         <v>478</v>
-      </c>
-      <c r="I128" s="89" t="s">
-        <v>479</v>
       </c>
       <c r="K128" t="b">
         <v>1</v>
@@ -27472,7 +27469,7 @@
         <v>68</v>
       </c>
       <c r="I129" s="89" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J129" t="b">
         <v>1</v>
@@ -27480,10 +27477,10 @@
     </row>
     <row r="130" spans="1:17" ht="30" customHeight="1">
       <c r="C130" s="109" t="s">
+        <v>480</v>
+      </c>
+      <c r="D130" s="89" t="s">
         <v>481</v>
-      </c>
-      <c r="D130" s="89" t="s">
-        <v>482</v>
       </c>
       <c r="E130" t="b">
         <v>1</v>
@@ -27492,7 +27489,7 @@
         <v>70</v>
       </c>
       <c r="I130" s="89" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J130" t="b">
         <v>1</v>
@@ -27573,10 +27570,10 @@
         <v>62</v>
       </c>
       <c r="M133" s="109" t="s">
+        <v>483</v>
+      </c>
+      <c r="N133" s="89" t="s">
         <v>484</v>
-      </c>
-      <c r="N133" s="89" t="s">
-        <v>485</v>
       </c>
       <c r="P133" t="b">
         <v>1</v>
@@ -27587,7 +27584,7 @@
         <v>306</v>
       </c>
       <c r="N134" s="89" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P134" t="b">
         <v>1</v>
@@ -27668,10 +27665,10 @@
         <v>89</v>
       </c>
       <c r="C138" s="109" t="s">
+        <v>486</v>
+      </c>
+      <c r="D138" s="89" t="s">
         <v>487</v>
-      </c>
-      <c r="D138" s="89" t="s">
-        <v>488</v>
       </c>
       <c r="F138" s="67" t="b">
         <v>1</v>
@@ -27680,7 +27677,7 @@
         <v>64</v>
       </c>
       <c r="I138" s="89" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K138" t="b">
         <v>1</v>
@@ -27691,7 +27688,7 @@
         <v>90</v>
       </c>
       <c r="I139" s="89" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J139" t="b">
         <v>1</v>
@@ -27699,10 +27696,10 @@
     </row>
     <row r="140" spans="1:17" ht="60" customHeight="1">
       <c r="C140" s="109" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D140" s="89" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F140" s="67" t="b">
         <v>1</v>
@@ -27711,7 +27708,7 @@
         <v>92</v>
       </c>
       <c r="I140" s="89" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K140" t="b">
         <v>1</v>
@@ -27722,7 +27719,7 @@
         <v>131</v>
       </c>
       <c r="D141" s="89" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E141" t="b">
         <v>1</v>
@@ -27731,7 +27728,7 @@
         <v>94</v>
       </c>
       <c r="I141" s="89" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J141" t="b">
         <v>1</v>
@@ -27812,10 +27809,10 @@
         <v>245</v>
       </c>
       <c r="C144" s="109" t="s">
+        <v>494</v>
+      </c>
+      <c r="D144" s="89" t="s">
         <v>495</v>
-      </c>
-      <c r="D144" s="89" t="s">
-        <v>496</v>
       </c>
       <c r="F144" s="67" t="b">
         <v>1</v>
@@ -27824,7 +27821,7 @@
         <v>251</v>
       </c>
       <c r="I144" s="89" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K144" t="b">
         <v>1</v>
@@ -27832,16 +27829,16 @@
     </row>
     <row r="145" spans="1:17" ht="30">
       <c r="C145" s="109" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D145" s="89" t="s">
+        <v>497</v>
+      </c>
+      <c r="F145" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="134" t="s">
         <v>498</v>
-      </c>
-      <c r="F145" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="134" t="s">
-        <v>499</v>
       </c>
       <c r="I145" s="89" t="s">
         <v>384</v>
@@ -27855,7 +27852,7 @@
         <v>198</v>
       </c>
       <c r="I146" s="89" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J146" t="b">
         <v>1</v>
@@ -27866,7 +27863,7 @@
         <v>247</v>
       </c>
       <c r="I147" s="89" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J147" t="b">
         <v>1</v>
@@ -27874,19 +27871,19 @@
     </row>
     <row r="148" spans="1:17" ht="30">
       <c r="C148" s="109" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D148" s="89" t="s">
+        <v>501</v>
+      </c>
+      <c r="F148" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" s="134" t="s">
         <v>502</v>
       </c>
-      <c r="F148" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" s="134" t="s">
+      <c r="I148" s="89" t="s">
         <v>503</v>
-      </c>
-      <c r="I148" s="89" t="s">
-        <v>504</v>
       </c>
       <c r="K148" t="b">
         <v>1</v>
@@ -28126,10 +28123,10 @@
         <v>250</v>
       </c>
       <c r="C157" s="109" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D157" s="89" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F157" s="67" t="b">
         <v>1</v>
@@ -28146,10 +28143,10 @@
     </row>
     <row r="158" spans="1:17" ht="30">
       <c r="C158" s="109" t="s">
+        <v>505</v>
+      </c>
+      <c r="D158" s="89" t="s">
         <v>506</v>
-      </c>
-      <c r="D158" s="89" t="s">
-        <v>507</v>
       </c>
       <c r="E158" t="b">
         <v>1</v>
@@ -28158,7 +28155,7 @@
         <v>122</v>
       </c>
       <c r="I158" s="89" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J158" t="b">
         <v>1</v>
@@ -28166,10 +28163,10 @@
     </row>
     <row r="159" spans="1:17" ht="30">
       <c r="C159" s="109" t="s">
+        <v>508</v>
+      </c>
+      <c r="D159" s="89" t="s">
         <v>509</v>
-      </c>
-      <c r="D159" s="89" t="s">
-        <v>510</v>
       </c>
       <c r="E159" t="b">
         <v>1</v>
@@ -28178,7 +28175,7 @@
         <v>251</v>
       </c>
       <c r="I159" s="89" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J159" t="b">
         <v>1</v>
@@ -28334,19 +28331,19 @@
         <v>240</v>
       </c>
       <c r="C165" s="109" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D165" s="89" t="s">
+        <v>510</v>
+      </c>
+      <c r="F165" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165" s="134" t="s">
+        <v>423</v>
+      </c>
+      <c r="I165" s="89" t="s">
         <v>511</v>
-      </c>
-      <c r="F165" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H165" s="134" t="s">
-        <v>424</v>
-      </c>
-      <c r="I165" s="89" t="s">
-        <v>512</v>
       </c>
       <c r="K165" t="b">
         <v>1</v>
@@ -28354,16 +28351,16 @@
     </row>
     <row r="166" spans="1:17" ht="30">
       <c r="C166" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="D166" s="89" t="s">
         <v>513</v>
       </c>
-      <c r="D166" s="89" t="s">
-        <v>514</v>
-      </c>
       <c r="F166" s="67" t="b">
         <v>1</v>
       </c>
       <c r="H166" s="134" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I166" s="89" t="s">
         <v>342</v>
@@ -28374,10 +28371,10 @@
     </row>
     <row r="167" spans="1:17" ht="30">
       <c r="C167" s="109" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D167" s="89" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F167" s="67" t="b">
         <v>1</v>
@@ -28386,7 +28383,7 @@
         <v>152</v>
       </c>
       <c r="I167" s="89" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K167" t="b">
         <v>1</v>
@@ -28394,10 +28391,10 @@
     </row>
     <row r="168" spans="1:17" ht="30">
       <c r="C168" s="109" t="s">
+        <v>516</v>
+      </c>
+      <c r="D168" s="89" t="s">
         <v>517</v>
-      </c>
-      <c r="D168" s="89" t="s">
-        <v>518</v>
       </c>
       <c r="F168" s="67" t="b">
         <v>1</v>
@@ -28406,7 +28403,7 @@
         <v>247</v>
       </c>
       <c r="I168" s="89" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K168" t="b">
         <v>1</v>
@@ -28487,16 +28484,16 @@
         <v>194</v>
       </c>
       <c r="C171" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="D171" s="89" t="s">
         <v>513</v>
       </c>
-      <c r="D171" s="89" t="s">
-        <v>514</v>
-      </c>
       <c r="F171" s="67" t="b">
         <v>1</v>
       </c>
       <c r="H171" s="134" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I171" s="89" t="s">
         <v>342</v>
@@ -28507,10 +28504,10 @@
     </row>
     <row r="172" spans="1:17" ht="30">
       <c r="C172" s="109" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D172" s="89" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F172" s="67" t="b">
         <v>1</v>
@@ -28519,7 +28516,7 @@
         <v>152</v>
       </c>
       <c r="I172" s="89" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K172" t="b">
         <v>1</v>
@@ -28527,10 +28524,10 @@
     </row>
     <row r="173" spans="1:17" ht="30">
       <c r="C173" s="109" t="s">
+        <v>516</v>
+      </c>
+      <c r="D173" s="89" t="s">
         <v>517</v>
-      </c>
-      <c r="D173" s="89" t="s">
-        <v>518</v>
       </c>
       <c r="F173" s="67" t="b">
         <v>1</v>
@@ -28539,7 +28536,7 @@
         <v>247</v>
       </c>
       <c r="I173" s="89" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K173" t="b">
         <v>1</v>
@@ -28620,28 +28617,28 @@
         <v>126</v>
       </c>
       <c r="C176" s="109" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D176" s="89" t="s">
+        <v>519</v>
+      </c>
+      <c r="F176" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="134" t="s">
         <v>520</v>
       </c>
-      <c r="F176" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="134" t="s">
+      <c r="I176" s="89" t="s">
         <v>521</v>
       </c>
-      <c r="I176" s="89" t="s">
+      <c r="K176" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M176" s="109" t="s">
         <v>522</v>
       </c>
-      <c r="K176" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="M176" s="109" t="s">
-        <v>523</v>
-      </c>
       <c r="N176" s="89" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P176" s="67" t="b">
         <v>1</v>
@@ -28649,19 +28646,19 @@
     </row>
     <row r="177" spans="1:17" ht="30">
       <c r="C177" s="109" t="s">
+        <v>523</v>
+      </c>
+      <c r="D177" s="89" t="s">
         <v>524</v>
       </c>
-      <c r="D177" s="89" t="s">
+      <c r="F177" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="134" t="s">
         <v>525</v>
       </c>
-      <c r="F177" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="134" t="s">
+      <c r="I177" s="89" t="s">
         <v>526</v>
-      </c>
-      <c r="I177" s="89" t="s">
-        <v>527</v>
       </c>
       <c r="K177" s="67" t="b">
         <v>1</v>
@@ -28670,7 +28667,7 @@
         <v>311</v>
       </c>
       <c r="N177" s="89" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P177" s="67" t="b">
         <v>1</v>
@@ -28678,10 +28675,10 @@
     </row>
     <row r="178" spans="1:17">
       <c r="C178" s="109" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D178" s="89" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F178" s="67" t="b">
         <v>1</v>
@@ -28690,10 +28687,10 @@
     </row>
     <row r="179" spans="1:17" ht="30.75" customHeight="1">
       <c r="C179" s="109" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D179" s="89" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F179" s="67" t="b">
         <v>1</v>
@@ -28702,7 +28699,7 @@
         <v>247</v>
       </c>
       <c r="I179" s="89" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K179" s="67" t="b">
         <v>1</v>
@@ -28711,7 +28708,7 @@
         <v>51</v>
       </c>
       <c r="N179" s="89" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P179" s="67" t="b">
         <v>1</v>
@@ -28719,10 +28716,10 @@
     </row>
     <row r="180" spans="1:17" ht="45.75">
       <c r="C180" s="109" t="s">
+        <v>531</v>
+      </c>
+      <c r="D180" s="89" t="s">
         <v>532</v>
-      </c>
-      <c r="D180" s="89" t="s">
-        <v>533</v>
       </c>
       <c r="F180" s="67" t="b">
         <v>1</v>
@@ -28739,10 +28736,10 @@
     </row>
     <row r="181" spans="1:17" ht="30.75">
       <c r="C181" s="206" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D181" s="214" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E181" s="209"/>
       <c r="F181" s="210" t="b">
@@ -28753,7 +28750,7 @@
         <v>289</v>
       </c>
       <c r="I181" s="89" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K181" s="67" t="b">
         <v>1</v>
@@ -28761,10 +28758,10 @@
     </row>
     <row r="182" spans="1:17" ht="30.75">
       <c r="C182" s="206" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D182" s="214" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E182" s="209"/>
       <c r="F182" s="210" t="b">
@@ -28772,10 +28769,10 @@
       </c>
       <c r="G182" s="211"/>
       <c r="H182" s="134" t="s">
+        <v>536</v>
+      </c>
+      <c r="I182" s="89" t="s">
         <v>537</v>
-      </c>
-      <c r="I182" s="89" t="s">
-        <v>538</v>
       </c>
       <c r="K182" s="67" t="b">
         <v>1</v>
@@ -28783,10 +28780,10 @@
     </row>
     <row r="183" spans="1:17" ht="30.75">
       <c r="C183" s="206" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D183" s="214" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E183" s="209"/>
       <c r="F183" s="210" t="b">
@@ -28794,10 +28791,10 @@
       </c>
       <c r="G183" s="211"/>
       <c r="H183" s="134" t="s">
+        <v>539</v>
+      </c>
+      <c r="I183" s="89" t="s">
         <v>540</v>
-      </c>
-      <c r="I183" s="89" t="s">
-        <v>541</v>
       </c>
       <c r="K183" s="67" t="b">
         <v>1</v>
@@ -28805,10 +28802,10 @@
     </row>
     <row r="184" spans="1:17" ht="30.75">
       <c r="C184" s="206" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D184" s="214" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E184" s="209"/>
       <c r="F184" s="210" t="b">
@@ -28816,10 +28813,10 @@
       </c>
       <c r="G184" s="211"/>
       <c r="H184" s="134" t="s">
+        <v>542</v>
+      </c>
+      <c r="I184" s="89" t="s">
         <v>543</v>
-      </c>
-      <c r="I184" s="89" t="s">
-        <v>544</v>
       </c>
       <c r="K184" s="67" t="b">
         <v>1</v>
@@ -28827,10 +28824,10 @@
     </row>
     <row r="185" spans="1:17" ht="30.75">
       <c r="C185" s="206" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D185" s="214" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E185" s="209"/>
       <c r="F185" s="210" t="b">
@@ -28838,10 +28835,10 @@
       </c>
       <c r="G185" s="211"/>
       <c r="H185" s="134" t="s">
+        <v>545</v>
+      </c>
+      <c r="I185" s="89" t="s">
         <v>546</v>
-      </c>
-      <c r="I185" s="89" t="s">
-        <v>547</v>
       </c>
       <c r="K185" s="67" t="b">
         <v>1</v>
@@ -28922,19 +28919,19 @@
         <v>209</v>
       </c>
       <c r="C188" s="109" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D188" s="89" t="s">
+        <v>547</v>
+      </c>
+      <c r="F188" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" s="134" t="s">
+        <v>520</v>
+      </c>
+      <c r="I188" s="89" t="s">
         <v>548</v>
-      </c>
-      <c r="F188" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" s="134" t="s">
-        <v>521</v>
-      </c>
-      <c r="I188" s="89" t="s">
-        <v>549</v>
       </c>
       <c r="K188" s="67" t="b">
         <v>1</v>
@@ -28943,7 +28940,7 @@
         <v>152</v>
       </c>
       <c r="N188" s="89" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P188" s="67" t="b">
         <v>1</v>
@@ -28951,10 +28948,10 @@
     </row>
     <row r="189" spans="1:17">
       <c r="C189" s="109" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D189" s="89" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F189" s="67" t="b">
         <v>1</v>
@@ -28962,28 +28959,28 @@
     </row>
     <row r="190" spans="1:17" ht="30.75">
       <c r="C190" s="109" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D190" s="89" t="s">
+        <v>549</v>
+      </c>
+      <c r="F190" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" s="134" t="s">
+        <v>525</v>
+      </c>
+      <c r="I190" s="89" t="s">
         <v>550</v>
       </c>
-      <c r="F190" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" s="134" t="s">
-        <v>526</v>
-      </c>
-      <c r="I190" s="89" t="s">
-        <v>551</v>
-      </c>
       <c r="K190" s="67" t="b">
         <v>1</v>
       </c>
       <c r="M190" s="109" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N190" s="89" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="P190" s="67" t="b">
         <v>1</v>
@@ -28991,10 +28988,10 @@
     </row>
     <row r="191" spans="1:17" ht="30.75" customHeight="1">
       <c r="C191" s="206" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D191" s="214" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E191" s="209"/>
       <c r="F191" s="210" t="b">
@@ -29005,16 +29002,16 @@
         <v>341</v>
       </c>
       <c r="I191" s="89" t="s">
+        <v>551</v>
+      </c>
+      <c r="K191" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M191" s="109" t="s">
         <v>552</v>
       </c>
-      <c r="K191" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="M191" s="109" t="s">
+      <c r="N191" s="89" t="s">
         <v>553</v>
-      </c>
-      <c r="N191" s="89" t="s">
-        <v>554</v>
       </c>
       <c r="P191" s="67" t="b">
         <v>1</v>
@@ -29022,10 +29019,10 @@
     </row>
     <row r="192" spans="1:17" ht="30.75">
       <c r="C192" s="206" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D192" s="214" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E192" s="209"/>
       <c r="F192" s="210" t="b">
@@ -29033,10 +29030,10 @@
       </c>
       <c r="G192" s="211"/>
       <c r="H192" s="134" t="s">
+        <v>554</v>
+      </c>
+      <c r="I192" s="89" t="s">
         <v>555</v>
-      </c>
-      <c r="I192" s="89" t="s">
-        <v>556</v>
       </c>
       <c r="K192" s="67" t="b">
         <v>1</v>
@@ -29045,10 +29042,10 @@
     </row>
     <row r="193" spans="1:17" ht="30.75">
       <c r="C193" s="206" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D193" s="214" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E193" s="209"/>
       <c r="F193" s="210" t="b">
@@ -29056,10 +29053,10 @@
       </c>
       <c r="G193" s="211"/>
       <c r="H193" s="134" t="s">
+        <v>556</v>
+      </c>
+      <c r="I193" s="89" t="s">
         <v>557</v>
-      </c>
-      <c r="I193" s="89" t="s">
-        <v>558</v>
       </c>
       <c r="K193" s="67" t="b">
         <v>1</v>
@@ -29068,10 +29065,10 @@
     </row>
     <row r="194" spans="1:17" ht="30.75">
       <c r="C194" s="206" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D194" s="214" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E194" s="209"/>
       <c r="F194" s="210" t="b">
@@ -29079,10 +29076,10 @@
       </c>
       <c r="G194" s="211"/>
       <c r="H194" s="134" t="s">
+        <v>558</v>
+      </c>
+      <c r="I194" s="89" t="s">
         <v>559</v>
-      </c>
-      <c r="I194" s="89" t="s">
-        <v>560</v>
       </c>
       <c r="K194" s="67" t="b">
         <v>1</v>
@@ -29091,10 +29088,10 @@
     </row>
     <row r="195" spans="1:17" ht="30.75">
       <c r="C195" s="206" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D195" s="214" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E195" s="212"/>
       <c r="F195" s="210" t="b">
@@ -29102,10 +29099,10 @@
       </c>
       <c r="G195" s="213"/>
       <c r="H195" s="134" t="s">
+        <v>560</v>
+      </c>
+      <c r="I195" s="89" t="s">
         <v>561</v>
-      </c>
-      <c r="I195" s="89" t="s">
-        <v>562</v>
       </c>
       <c r="K195" s="67" t="b">
         <v>1</v>
@@ -29184,7 +29181,7 @@
     </row>
     <row r="198" spans="1:17">
       <c r="A198" s="208" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D198" s="89">
         <f>SUM(D10,D14,D19,D25,D33,D39,D45,D63,D49,D66,D70,D73,D77,D82,D85,D92,D95,D100,D106,D119,D131,D136,D142,D149,D152,D155,D160,D163,D169,D174,D186,D196)</f>
@@ -29198,7 +29195,7 @@
         <f t="shared" si="90"/>
         <v>58</v>
       </c>
-      <c r="G198" s="229">
+      <c r="G198" s="215">
         <f>SUM(G10,G14,G19,G25,G33,G39,G45,G63,G49,G66,G70,G73,G77,G82,G85,G92,G95,G100,G106,G119,G131,G136,G142,G149,G152,G155,G160,G163,G169,G174,G186,G196)</f>
         <v>3</v>
       </c>
@@ -29321,10 +29318,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="F3" s="70" t="s">
         <v>52</v>
@@ -29336,16 +29333,16 @@
         <v>54</v>
       </c>
       <c r="I3" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K3" s="70" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="122" t="s">
+        <v>563</v>
+      </c>
+      <c r="M3" s="123" t="s">
         <v>564</v>
-      </c>
-      <c r="M3" s="123" t="s">
-        <v>565</v>
       </c>
       <c r="N3" s="122" t="s">
         <v>52</v>
@@ -29357,16 +29354,16 @@
         <v>54</v>
       </c>
       <c r="Q3" s="122" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="S3" s="70" t="s">
         <v>3</v>
       </c>
       <c r="T3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="U3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="U3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="V3" s="70" t="s">
         <v>52</v>
@@ -29378,16 +29375,16 @@
         <v>54</v>
       </c>
       <c r="Y3" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AA3" s="70" t="s">
         <v>3</v>
       </c>
       <c r="AB3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="AC3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="AD3" s="70" t="s">
         <v>52</v>
@@ -29399,16 +29396,16 @@
         <v>54</v>
       </c>
       <c r="AG3" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AI3" s="70" t="s">
         <v>3</v>
       </c>
       <c r="AJ3" s="122" t="s">
+        <v>563</v>
+      </c>
+      <c r="AK3" s="123" t="s">
         <v>564</v>
-      </c>
-      <c r="AK3" s="123" t="s">
-        <v>565</v>
       </c>
       <c r="AL3" s="122" t="s">
         <v>52</v>
@@ -29420,16 +29417,16 @@
         <v>54</v>
       </c>
       <c r="AO3" s="122" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AQ3" s="77" t="s">
         <v>3</v>
       </c>
       <c r="AR3" s="122" t="s">
+        <v>563</v>
+      </c>
+      <c r="AS3" s="123" t="s">
         <v>564</v>
-      </c>
-      <c r="AS3" s="123" t="s">
-        <v>565</v>
       </c>
       <c r="AT3" s="122" t="s">
         <v>52</v>
@@ -29441,16 +29438,16 @@
         <v>54</v>
       </c>
       <c r="AW3" s="122" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AY3" s="77" t="s">
         <v>3</v>
       </c>
       <c r="AZ3" s="122" t="s">
+        <v>563</v>
+      </c>
+      <c r="BA3" s="123" t="s">
         <v>564</v>
-      </c>
-      <c r="BA3" s="123" t="s">
-        <v>565</v>
       </c>
       <c r="BB3" s="122" t="s">
         <v>52</v>
@@ -29462,16 +29459,16 @@
         <v>54</v>
       </c>
       <c r="BE3" s="122" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="BG3" s="70" t="s">
         <v>3</v>
       </c>
       <c r="BH3" s="122" t="s">
+        <v>563</v>
+      </c>
+      <c r="BI3" s="123" t="s">
         <v>564</v>
-      </c>
-      <c r="BI3" s="123" t="s">
-        <v>565</v>
       </c>
       <c r="BJ3" s="122" t="s">
         <v>52</v>
@@ -29483,16 +29480,16 @@
         <v>54</v>
       </c>
       <c r="BM3" s="122" t="s">
+        <v>565</v>
+      </c>
+      <c r="BP3" s="229" t="s">
         <v>566</v>
       </c>
-      <c r="BP3" s="228" t="s">
-        <v>567</v>
-      </c>
-      <c r="BQ3" s="228"/>
+      <c r="BQ3" s="229"/>
     </row>
     <row r="4" spans="3:69" ht="45">
       <c r="C4" s="101" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>341</v>
@@ -29509,7 +29506,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="101" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>214</v>
@@ -29526,7 +29523,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="101" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>200</v>
@@ -29543,7 +29540,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="101" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>232</v>
@@ -29560,7 +29557,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="101" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>111</v>
@@ -29577,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="72" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>258</v>
@@ -29594,7 +29591,7 @@
         <v>1</v>
       </c>
       <c r="AY4" s="72" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AZ4" s="1" t="s">
         <v>341</v>
@@ -29611,7 +29608,7 @@
         <v>1</v>
       </c>
       <c r="BG4" s="101" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="BH4" s="1" t="s">
         <v>111</v>
@@ -29628,7 +29625,7 @@
         <v>0</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="BQ4" s="1">
         <f>(AVERAGE(I12,Q9,Y9,AG10,AO11,AW10,BE10,BM9))</f>
@@ -29641,7 +29638,7 @@
         <v>222</v>
       </c>
       <c r="E5" s="112" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -29667,7 +29664,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="74" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>198</v>
@@ -29759,7 +29756,7 @@
         <v>1</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="BQ5" s="1">
         <f>AVERAGE(BM10,AW11,AO12,AG11,Y10,Q10,I13,BE11)</f>
@@ -29783,7 +29780,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L6">
         <v>363</v>
@@ -29796,7 +29793,7 @@
         <v>2</v>
       </c>
       <c r="S6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="T6">
         <v>363</v>
@@ -29855,7 +29852,7 @@
       </c>
       <c r="AY6" s="74"/>
       <c r="AZ6" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="BA6" s="112" t="s">
         <v>379</v>
@@ -29869,7 +29866,7 @@
         <v>1</v>
       </c>
       <c r="BG6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="BH6">
         <v>113</v>
@@ -29900,7 +29897,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -29913,7 +29910,7 @@
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="T7">
         <v>4</v>
@@ -29926,7 +29923,7 @@
         <v>0</v>
       </c>
       <c r="AA7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AB7">
         <v>111</v>
@@ -29956,7 +29953,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AR7">
         <v>217</v>
@@ -29969,7 +29966,7 @@
         <v>3</v>
       </c>
       <c r="AY7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AZ7">
         <v>115</v>
@@ -29983,7 +29980,7 @@
         <v>2</v>
       </c>
       <c r="BG7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BH7">
         <v>5</v>
@@ -30028,7 +30025,7 @@
         <v>1</v>
       </c>
       <c r="AA8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AB8">
         <v>5</v>
@@ -30041,7 +30038,7 @@
         <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AJ8">
         <v>133</v>
@@ -30054,7 +30051,7 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AR8">
         <v>6</v>
@@ -30067,7 +30064,7 @@
         <v>2</v>
       </c>
       <c r="AY8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AZ8">
         <v>7</v>
@@ -30091,7 +30088,7 @@
     </row>
     <row r="9" spans="3:69">
       <c r="C9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -30107,10 +30104,10 @@
         <v>10</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Q9">
         <f>IFERROR((Q6/(Q6+Q7)),1)</f>
@@ -30120,10 +30117,10 @@
         <v>10</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="X9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Y9">
         <f>IFERROR((Y6/(Y6+Y7)),1)</f>
@@ -30137,7 +30134,7 @@
         <v>2</v>
       </c>
       <c r="AI9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AJ9">
         <v>9</v>
@@ -30168,11 +30165,11 @@
         <v>10</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BI9" s="67"/>
       <c r="BL9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BM9">
         <f>IFERROR((BM6/(BM6+BM7)),1)</f>
@@ -30181,7 +30178,7 @@
     </row>
     <row r="10" spans="3:69">
       <c r="C10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D10">
         <v>11</v>
@@ -30197,14 +30194,14 @@
         <v>182</v>
       </c>
       <c r="P10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Q10">
         <f>IFERROR((Q6/(Q6+Q8)), 1)</f>
         <v>1</v>
       </c>
       <c r="X10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Y10">
         <f>IFERROR((Y6/(Y6+Y8)), 1)</f>
@@ -30214,10 +30211,10 @@
         <v>10</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG10">
         <f>IFERROR((AG7/(AG7+AG8)),1)</f>
@@ -30234,10 +30231,10 @@
         <v>10</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AW10">
         <f>IFERROR((AW7/(AW7+AW8)),1)</f>
@@ -30247,11 +30244,11 @@
         <v>10</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BA10" s="67"/>
       <c r="BD10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BE10">
         <f>IFERROR((BE7/(BE7+BE8)),1)</f>
@@ -30259,7 +30256,7 @@
       </c>
       <c r="BI10" s="67"/>
       <c r="BL10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="BM10">
         <f>IFERROR((BM6/(BM6+BM8)), 1)</f>
@@ -30275,7 +30272,7 @@
         <v>1</v>
       </c>
       <c r="AF11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AG11">
         <f>IFERROR((AG7/(AG7+AG9)), 1)</f>
@@ -30285,10 +30282,10 @@
         <v>10</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AN11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AO11">
         <f>IFERROR((AO8/(AO8+AO9)),1)</f>
@@ -30298,7 +30295,7 @@
         <v>54</v>
       </c>
       <c r="AV11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AW11">
         <f>IFERROR((AW7/(AW7+AW9)), 1)</f>
@@ -30306,7 +30303,7 @@
       </c>
       <c r="BA11" s="67"/>
       <c r="BD11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="BE11">
         <f>IFERROR((BE7/(BE7+BE9)), 1)</f>
@@ -30319,10 +30316,10 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I12">
         <f>IFERROR((I9/(I9+I10)),1)</f>
@@ -30332,7 +30329,7 @@
         <v>109</v>
       </c>
       <c r="AN12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AO12">
         <f>IFERROR((AO8/(AO8+AO10)), 1)</f>
@@ -30346,7 +30343,7 @@
     </row>
     <row r="13" spans="3:69">
       <c r="H13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I13">
         <f>IFERROR((I9/(I9+I11)), 1)</f>
@@ -30429,8 +30426,8 @@
   </sheetPr>
   <dimension ref="C2:GQ21"/>
   <sheetViews>
-    <sheetView topLeftCell="EJ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="EY1" sqref="EY1"/>
+    <sheetView topLeftCell="DM1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="DN4" sqref="DN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30558,10 +30555,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="77" t="s">
+        <v>563</v>
+      </c>
+      <c r="E2" s="77" t="s">
         <v>564</v>
-      </c>
-      <c r="E2" s="77" t="s">
-        <v>565</v>
       </c>
       <c r="F2" s="77" t="s">
         <v>52</v>
@@ -30573,17 +30570,17 @@
         <v>54</v>
       </c>
       <c r="I2" s="143" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J2" s="111"/>
       <c r="K2" s="77" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="77" t="s">
+        <v>563</v>
+      </c>
+      <c r="M2" s="68" t="s">
         <v>564</v>
-      </c>
-      <c r="M2" s="68" t="s">
-        <v>565</v>
       </c>
       <c r="N2" s="79" t="s">
         <v>52</v>
@@ -30595,16 +30592,16 @@
         <v>54</v>
       </c>
       <c r="Q2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="S2" s="77" t="s">
         <v>3</v>
       </c>
       <c r="T2" s="77" t="s">
+        <v>563</v>
+      </c>
+      <c r="U2" s="68" t="s">
         <v>564</v>
-      </c>
-      <c r="U2" s="68" t="s">
-        <v>565</v>
       </c>
       <c r="V2" s="79" t="s">
         <v>52</v>
@@ -30616,17 +30613,17 @@
         <v>54</v>
       </c>
       <c r="Y2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Z2" s="111"/>
       <c r="AA2" s="77" t="s">
         <v>3</v>
       </c>
       <c r="AB2" s="77" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC2" s="68" t="s">
         <v>564</v>
-      </c>
-      <c r="AC2" s="68" t="s">
-        <v>565</v>
       </c>
       <c r="AD2" s="79" t="s">
         <v>52</v>
@@ -30638,16 +30635,16 @@
         <v>54</v>
       </c>
       <c r="AG2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AI2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="AJ2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="AK2" s="71" t="s">
         <v>564</v>
-      </c>
-      <c r="AK2" s="71" t="s">
-        <v>565</v>
       </c>
       <c r="AL2" s="71" t="s">
         <v>52</v>
@@ -30659,16 +30656,16 @@
         <v>54</v>
       </c>
       <c r="AO2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AQ2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="AR2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="AS2" s="71" t="s">
         <v>564</v>
-      </c>
-      <c r="AS2" s="71" t="s">
-        <v>565</v>
       </c>
       <c r="AT2" s="71" t="s">
         <v>52</v>
@@ -30680,16 +30677,16 @@
         <v>54</v>
       </c>
       <c r="AW2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AY2" s="88" t="s">
         <v>3</v>
       </c>
       <c r="AZ2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="BA2" s="71" t="s">
         <v>564</v>
-      </c>
-      <c r="BA2" s="71" t="s">
-        <v>565</v>
       </c>
       <c r="BB2" s="71" t="s">
         <v>52</v>
@@ -30701,17 +30698,17 @@
         <v>54</v>
       </c>
       <c r="BE2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="BF2" s="111"/>
       <c r="BG2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="BH2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="BI2" s="71" t="s">
         <v>564</v>
-      </c>
-      <c r="BI2" s="71" t="s">
-        <v>565</v>
       </c>
       <c r="BJ2" s="71" t="s">
         <v>52</v>
@@ -30723,17 +30720,17 @@
         <v>54</v>
       </c>
       <c r="BM2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="BN2" s="111"/>
       <c r="BO2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="BP2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="BQ2" s="150" t="s">
         <v>564</v>
-      </c>
-      <c r="BQ2" s="150" t="s">
-        <v>565</v>
       </c>
       <c r="BR2" s="88" t="s">
         <v>52</v>
@@ -30745,16 +30742,16 @@
         <v>54</v>
       </c>
       <c r="BU2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="BW2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="BX2" s="79" t="s">
+        <v>563</v>
+      </c>
+      <c r="BY2" s="78" t="s">
         <v>564</v>
-      </c>
-      <c r="BY2" s="78" t="s">
-        <v>565</v>
       </c>
       <c r="BZ2" s="68" t="s">
         <v>52</v>
@@ -30766,17 +30763,17 @@
         <v>54</v>
       </c>
       <c r="CC2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="CD2" s="111"/>
       <c r="CE2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="CF2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="CG2" s="150" t="s">
         <v>564</v>
-      </c>
-      <c r="CG2" s="150" t="s">
-        <v>565</v>
       </c>
       <c r="CH2" s="88" t="s">
         <v>52</v>
@@ -30788,16 +30785,16 @@
         <v>54</v>
       </c>
       <c r="CK2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="CM2" s="70" t="s">
         <v>3</v>
       </c>
       <c r="CN2" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="CO2" s="93" t="s">
         <v>564</v>
-      </c>
-      <c r="CO2" s="93" t="s">
-        <v>565</v>
       </c>
       <c r="CP2" s="88" t="s">
         <v>52</v>
@@ -30809,16 +30806,16 @@
         <v>54</v>
       </c>
       <c r="CS2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="CU2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="CV2" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="CW2" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="CW2" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="CX2" s="71" t="s">
         <v>52</v>
@@ -30830,17 +30827,17 @@
         <v>54</v>
       </c>
       <c r="DA2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="DB2" s="111"/>
       <c r="DC2" s="88" t="s">
         <v>3</v>
       </c>
       <c r="DD2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="DE2" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="DE2" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="DF2" s="71" t="s">
         <v>52</v>
@@ -30852,17 +30849,17 @@
         <v>54</v>
       </c>
       <c r="DI2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="DJ2" s="111"/>
       <c r="DL2" s="122" t="s">
         <v>3</v>
       </c>
       <c r="DM2" s="124" t="s">
+        <v>563</v>
+      </c>
+      <c r="DN2" s="123" t="s">
         <v>564</v>
-      </c>
-      <c r="DN2" s="123" t="s">
-        <v>565</v>
       </c>
       <c r="DO2" s="122" t="s">
         <v>52</v>
@@ -30874,16 +30871,16 @@
         <v>54</v>
       </c>
       <c r="DR2" s="122" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="DT2" s="88" t="s">
         <v>3</v>
       </c>
       <c r="DU2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="DV2" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="DV2" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="DW2" s="71" t="s">
         <v>52</v>
@@ -30895,17 +30892,17 @@
         <v>54</v>
       </c>
       <c r="DZ2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="EA2" s="111"/>
       <c r="EB2" s="88" t="s">
         <v>3</v>
       </c>
       <c r="EC2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="ED2" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="ED2" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="EE2" s="71" t="s">
         <v>52</v>
@@ -30917,17 +30914,17 @@
         <v>54</v>
       </c>
       <c r="EH2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="EI2" s="111"/>
       <c r="EJ2" s="88" t="s">
         <v>3</v>
       </c>
       <c r="EK2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="EL2" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="EL2" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="EM2" s="71" t="s">
         <v>52</v>
@@ -30939,16 +30936,16 @@
         <v>54</v>
       </c>
       <c r="EP2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="ER2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="ES2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="ET2" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="ET2" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="EU2" s="71" t="s">
         <v>52</v>
@@ -30960,17 +30957,17 @@
         <v>54</v>
       </c>
       <c r="EX2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="EY2" s="111"/>
       <c r="EZ2" s="88" t="s">
         <v>3</v>
       </c>
       <c r="FA2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="FB2" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="FB2" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="FC2" s="71" t="s">
         <v>52</v>
@@ -30982,16 +30979,16 @@
         <v>54</v>
       </c>
       <c r="FF2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="FH2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="FI2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="FJ2" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="FJ2" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="FK2" s="71" t="s">
         <v>52</v>
@@ -31003,17 +31000,17 @@
         <v>54</v>
       </c>
       <c r="FN2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="FO2" s="111"/>
       <c r="FP2" s="88" t="s">
         <v>3</v>
       </c>
       <c r="FQ2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="FR2" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="FR2" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="FS2" s="71" t="s">
         <v>52</v>
@@ -31025,16 +31022,16 @@
         <v>54</v>
       </c>
       <c r="FV2" s="122" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="FX2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="FY2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="FZ2" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="FZ2" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="GA2" s="71" t="s">
         <v>52</v>
@@ -31046,16 +31043,16 @@
         <v>54</v>
       </c>
       <c r="GD2" s="144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="GF2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="GG2" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="GH2" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="GH2" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="GI2" s="71" t="s">
         <v>52</v>
@@ -31067,22 +31064,22 @@
         <v>54</v>
       </c>
       <c r="GL2" s="144" t="s">
-        <v>566</v>
-      </c>
-      <c r="GP2" s="228" t="s">
-        <v>584</v>
-      </c>
-      <c r="GQ2" s="228"/>
+        <v>565</v>
+      </c>
+      <c r="GP2" s="229" t="s">
+        <v>583</v>
+      </c>
+      <c r="GQ2" s="229"/>
     </row>
     <row r="3" spans="3:199" ht="45.75">
       <c r="C3" s="72" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D3" s="72" t="s">
         <v>251</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="80" t="b">
@@ -31094,13 +31091,13 @@
       </c>
       <c r="J3" s="111"/>
       <c r="K3" s="72" t="s">
+        <v>586</v>
+      </c>
+      <c r="L3" s="72" t="s">
         <v>587</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="M3" s="82" t="s">
         <v>588</v>
-      </c>
-      <c r="M3" s="82" t="s">
-        <v>589</v>
       </c>
       <c r="N3" s="73" t="b">
         <v>1</v>
@@ -31110,13 +31107,13 @@
         <v>0</v>
       </c>
       <c r="S3" s="72" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T3" s="72" t="s">
         <v>409</v>
       </c>
       <c r="U3" s="82" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="V3" s="73"/>
       <c r="W3" s="73" t="b">
@@ -31126,7 +31123,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="72" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AB3" s="72"/>
       <c r="AC3" s="82"/>
@@ -31135,13 +31132,13 @@
       <c r="AF3" s="73"/>
       <c r="AG3" s="12"/>
       <c r="AI3" s="72" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>242</v>
       </c>
       <c r="AK3" s="112" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AL3" s="1" t="b">
         <v>1</v>
@@ -31152,13 +31149,13 @@
         <v>1</v>
       </c>
       <c r="AQ3" s="72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>232</v>
       </c>
       <c r="AS3" s="112" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1" t="b">
@@ -31169,13 +31166,13 @@
         <v>1</v>
       </c>
       <c r="AY3" s="69" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AZ3" s="113" t="s">
         <v>238</v>
       </c>
       <c r="BA3" s="112" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1" t="b">
@@ -31186,13 +31183,13 @@
         <v>1</v>
       </c>
       <c r="BG3" s="72" t="s">
+        <v>596</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="BI3" s="112" t="s">
         <v>597</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="BI3" s="112" t="s">
-        <v>598</v>
       </c>
       <c r="BJ3" s="1"/>
       <c r="BK3" s="1" t="b">
@@ -31203,7 +31200,7 @@
         <v>1</v>
       </c>
       <c r="BO3" s="72" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="112"/>
@@ -31212,13 +31209,13 @@
       <c r="BT3" s="1"/>
       <c r="BU3" s="1"/>
       <c r="BW3" s="80" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="BX3" s="73" t="s">
         <v>129</v>
       </c>
       <c r="BY3" s="67" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="BZ3" s="80"/>
       <c r="CA3" s="73" t="b">
@@ -31229,13 +31226,13 @@
         <v>1</v>
       </c>
       <c r="CE3" s="72" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="CF3" s="1" t="s">
         <v>129</v>
       </c>
       <c r="CG3" s="112" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
@@ -31244,13 +31241,13 @@
         <v>1</v>
       </c>
       <c r="CM3" s="101" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="CN3" s="1" t="s">
         <v>152</v>
       </c>
       <c r="CO3" s="112" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="CP3" s="1" t="b">
         <v>1</v>
@@ -31261,13 +31258,13 @@
         <v>1</v>
       </c>
       <c r="CU3" s="72" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>297</v>
       </c>
       <c r="CW3" s="112" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CX3" s="1"/>
       <c r="CY3" s="1" t="b">
@@ -31278,7 +31275,7 @@
         <v>1</v>
       </c>
       <c r="DC3" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="DD3" s="1"/>
       <c r="DE3" s="112"/>
@@ -31287,13 +31284,13 @@
       <c r="DH3" s="1"/>
       <c r="DI3" s="1"/>
       <c r="DL3" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="DM3" s="113" t="s">
         <v>64</v>
       </c>
       <c r="DN3" s="112" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="DO3" s="1"/>
       <c r="DP3" s="1" t="b">
@@ -31304,13 +31301,13 @@
         <v>1</v>
       </c>
       <c r="DT3" s="101" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="DU3" s="1" t="s">
         <v>251</v>
       </c>
       <c r="DV3" s="112" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="DW3" s="1"/>
       <c r="DX3" s="1" t="b">
@@ -31321,13 +31318,13 @@
         <v>1</v>
       </c>
       <c r="EB3" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="EC3" s="112" t="s">
         <v>90</v>
       </c>
       <c r="ED3" s="112" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="EE3" s="1" t="b">
         <v>1</v>
@@ -31338,7 +31335,7 @@
         <v>1</v>
       </c>
       <c r="EJ3" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="EK3" s="112"/>
       <c r="EL3" s="112"/>
@@ -31347,13 +31344,13 @@
       <c r="EO3" s="1"/>
       <c r="EP3" s="1"/>
       <c r="ER3" s="72" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="ES3" s="1" t="s">
         <v>409</v>
       </c>
       <c r="ET3" s="112" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="EU3" s="1"/>
       <c r="EV3" s="1" t="b">
@@ -31364,7 +31361,7 @@
         <v>1</v>
       </c>
       <c r="EZ3" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="FA3" s="1"/>
       <c r="FB3" s="112"/>
@@ -31373,13 +31370,13 @@
       <c r="FE3" s="1"/>
       <c r="FF3" s="1"/>
       <c r="FH3" s="72" t="s">
+        <v>616</v>
+      </c>
+      <c r="FI3" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="FJ3" s="112" t="s">
         <v>617</v>
-      </c>
-      <c r="FI3" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="FJ3" s="112" t="s">
-        <v>618</v>
       </c>
       <c r="FK3" s="1"/>
       <c r="FL3" s="1" t="b">
@@ -31390,13 +31387,13 @@
         <v>1</v>
       </c>
       <c r="FP3" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="FQ3" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="FR3" s="112" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="FS3" s="1"/>
       <c r="FT3" s="1" t="b">
@@ -31407,13 +31404,13 @@
         <v>1</v>
       </c>
       <c r="FX3" s="72" t="s">
+        <v>619</v>
+      </c>
+      <c r="FY3" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="FZ3" s="112" t="s">
         <v>620</v>
-      </c>
-      <c r="FY3" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="FZ3" s="112" t="s">
-        <v>621</v>
       </c>
       <c r="GA3" s="1"/>
       <c r="GB3" s="1" t="b">
@@ -31424,13 +31421,13 @@
         <v>1</v>
       </c>
       <c r="GF3" s="72" t="s">
+        <v>621</v>
+      </c>
+      <c r="GG3" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="GH3" s="112" t="s">
         <v>622</v>
-      </c>
-      <c r="GG3" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="GH3" s="112" t="s">
-        <v>623</v>
       </c>
       <c r="GI3" s="1"/>
       <c r="GJ3" s="1" t="b">
@@ -31441,7 +31438,7 @@
         <v>1</v>
       </c>
       <c r="GP3" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="GQ3" s="1">
         <f>(AVERAGE(I20,Q8,Y9,AG8,AO9,AW9,BE8,BM11,BU8,CC8,CK8,CS15,DA16,DI7,DR9,DZ11,EH7,EP7,EX9,FF7,FN10,FV9,GD11,GL9))</f>
@@ -31454,7 +31451,7 @@
         <v>177</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F4" s="72" t="b">
         <v>1</v>
@@ -31475,7 +31472,7 @@
         <v>122</v>
       </c>
       <c r="U4" s="147" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="V4" s="148" t="b">
         <v>1</v>
@@ -31497,7 +31494,7 @@
         <v>311</v>
       </c>
       <c r="AK4" s="112" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1" t="b">
@@ -31512,7 +31509,7 @@
         <v>64</v>
       </c>
       <c r="AS4" s="112" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1" t="b">
@@ -31531,10 +31528,10 @@
       <c r="BE4" s="1"/>
       <c r="BG4" s="72"/>
       <c r="BH4" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BI4" s="112" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1" t="b">
@@ -31556,7 +31553,7 @@
         <v>236</v>
       </c>
       <c r="BY4" s="75" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="BZ4" s="81"/>
       <c r="CA4" s="76"/>
@@ -31578,7 +31575,7 @@
         <v>153</v>
       </c>
       <c r="CO4" s="112" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="CP4" s="1" t="b">
         <v>1</v>
@@ -31593,7 +31590,7 @@
         <v>64</v>
       </c>
       <c r="CW4" s="112" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="CX4" s="1" t="b">
         <v>1</v>
@@ -31604,7 +31601,7 @@
         <v>1</v>
       </c>
       <c r="DC4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="DD4">
         <v>60</v>
@@ -31622,7 +31619,7 @@
         <v>90</v>
       </c>
       <c r="DN4" s="112" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="DO4" s="1" t="b">
         <v>1</v>
@@ -31634,10 +31631,10 @@
       </c>
       <c r="DT4" s="72"/>
       <c r="DU4" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="DV4" s="112" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="DW4" s="1"/>
       <c r="DX4" s="1" t="b">
@@ -31648,7 +31645,7 @@
         <v>1</v>
       </c>
       <c r="EB4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="EC4">
         <v>185</v>
@@ -31662,7 +31659,7 @@
         <v>1</v>
       </c>
       <c r="EJ4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="EK4">
         <v>94</v>
@@ -31679,7 +31676,7 @@
         <v>122</v>
       </c>
       <c r="ET4" s="112" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="EU4" s="1" t="b">
         <v>1</v>
@@ -31690,7 +31687,7 @@
         <v>1</v>
       </c>
       <c r="EZ4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="FA4">
         <v>73</v>
@@ -31704,10 +31701,10 @@
       </c>
       <c r="FH4" s="72"/>
       <c r="FI4" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="FJ4" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="FK4" s="1"/>
       <c r="FL4" s="1" t="b">
@@ -31722,7 +31719,7 @@
         <v>152</v>
       </c>
       <c r="FR4" s="112" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="FS4" s="1"/>
       <c r="FT4" s="1" t="b">
@@ -31734,10 +31731,10 @@
       </c>
       <c r="FX4" s="72"/>
       <c r="FY4" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="FZ4" s="112" t="s">
         <v>526</v>
-      </c>
-      <c r="FZ4" s="112" t="s">
-        <v>527</v>
       </c>
       <c r="GA4" s="1"/>
       <c r="GB4" s="1" t="b">
@@ -31749,10 +31746,10 @@
       </c>
       <c r="GF4" s="72"/>
       <c r="GG4" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="GH4" s="112" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="GI4" s="1"/>
       <c r="GJ4" s="1" t="b">
@@ -31763,7 +31760,7 @@
         <v>1</v>
       </c>
       <c r="GP4" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="GQ4" s="1">
         <f>AVERAGE(I21,Q9,Y10,AG9,AO10,AW10,BE9,BM12,BU9,CC9,CK9,CS16,DA17,DI8,DR10,DZ12,EH8,EP8,EX10,FF8,FN11,FV10,GD12,GL10)</f>
@@ -31776,7 +31773,7 @@
         <v>389</v>
       </c>
       <c r="E5" s="84" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F5" s="72"/>
       <c r="G5" s="80" t="b">
@@ -31786,7 +31783,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -31806,7 +31803,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="AA5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AB5">
         <v>63</v>
@@ -31823,7 +31820,7 @@
         <v>243</v>
       </c>
       <c r="AK5" s="112" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AL5" s="1" t="b">
         <v>1</v>
@@ -31838,7 +31835,7 @@
         <v>85</v>
       </c>
       <c r="AS5" s="112" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AT5" s="1" t="b">
         <v>1</v>
@@ -31849,7 +31846,7 @@
         <v>1</v>
       </c>
       <c r="AY5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AZ5">
         <v>97</v>
@@ -31863,10 +31860,10 @@
       </c>
       <c r="BG5" s="72"/>
       <c r="BH5" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BI5" s="112" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1" t="b">
@@ -31877,7 +31874,7 @@
         <v>1</v>
       </c>
       <c r="BO5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="BP5">
         <v>86</v>
@@ -31890,7 +31887,7 @@
         <v>0</v>
       </c>
       <c r="BW5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="BX5">
         <v>77</v>
@@ -31903,7 +31900,7 @@
         <v>2</v>
       </c>
       <c r="CE5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="CF5">
         <v>82</v>
@@ -31920,7 +31917,7 @@
         <v>155</v>
       </c>
       <c r="CO5" s="112" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="CP5" s="1" t="b">
         <v>1</v>
@@ -31935,7 +31932,7 @@
         <v>395</v>
       </c>
       <c r="CW5" s="112" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="CX5" s="1"/>
       <c r="CY5" s="1" t="b">
@@ -31946,7 +31943,7 @@
         <v>1</v>
       </c>
       <c r="DC5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="DD5">
         <v>0</v>
@@ -31964,7 +31961,7 @@
         <v>94</v>
       </c>
       <c r="DN5" s="112" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="DO5" s="1" t="b">
         <v>1</v>
@@ -31979,7 +31976,7 @@
         <v>198</v>
       </c>
       <c r="DV5" s="112" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="DW5" s="1" t="b">
         <v>1</v>
@@ -32001,7 +31998,7 @@
         <v>1</v>
       </c>
       <c r="EJ5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="EK5">
         <v>0</v>
@@ -32018,7 +32015,7 @@
         <v>251</v>
       </c>
       <c r="ET5" s="112" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="EU5" s="1" t="b">
         <v>1</v>
@@ -32029,7 +32026,7 @@
         <v>1</v>
       </c>
       <c r="EZ5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="FA5">
         <v>0</v>
@@ -32046,7 +32043,7 @@
         <v>152</v>
       </c>
       <c r="FJ5" s="112" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="FK5" s="1"/>
       <c r="FL5" s="1" t="b">
@@ -32061,7 +32058,7 @@
         <v>247</v>
       </c>
       <c r="FR5" s="112" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="FS5" s="1"/>
       <c r="FT5" s="1" t="b">
@@ -32073,10 +32070,10 @@
       </c>
       <c r="FX5" s="72"/>
       <c r="FY5" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="FZ5" s="112" t="s">
         <v>643</v>
-      </c>
-      <c r="FZ5" s="112" t="s">
-        <v>644</v>
       </c>
       <c r="GA5" s="1"/>
       <c r="GB5" s="1" t="b">
@@ -32088,10 +32085,10 @@
       </c>
       <c r="GF5" s="74"/>
       <c r="GG5" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="GH5" s="112" t="s">
         <v>645</v>
-      </c>
-      <c r="GH5" s="112" t="s">
-        <v>646</v>
       </c>
       <c r="GI5" s="1"/>
       <c r="GJ5" s="1" t="b">
@@ -32108,7 +32105,7 @@
         <v>180</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F6" s="72" t="b">
         <v>1</v>
@@ -32118,7 +32115,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -32130,7 +32127,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="T6">
         <v>61</v>
@@ -32143,7 +32140,7 @@
         <v>2</v>
       </c>
       <c r="AA6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -32155,7 +32152,7 @@
         <v>1</v>
       </c>
       <c r="AI6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AJ6">
         <v>100</v>
@@ -32168,7 +32165,7 @@
         <v>0</v>
       </c>
       <c r="AQ6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AR6">
         <v>90</v>
@@ -32182,7 +32179,7 @@
         <v>3</v>
       </c>
       <c r="AY6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AZ6">
         <v>2</v>
@@ -32199,7 +32196,7 @@
         <v>152</v>
       </c>
       <c r="BI6" s="112" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="BJ6" s="1"/>
       <c r="BK6" s="1" t="b">
@@ -32210,7 +32207,7 @@
         <v>1</v>
       </c>
       <c r="BO6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -32223,7 +32220,7 @@
         <v>0</v>
       </c>
       <c r="BW6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BX6">
         <v>4</v>
@@ -32236,7 +32233,7 @@
         <v>0</v>
       </c>
       <c r="CE6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="CF6">
         <v>2</v>
@@ -32253,7 +32250,7 @@
         <v>159</v>
       </c>
       <c r="CO6" s="112" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="CP6" s="1" t="b">
         <v>1</v>
@@ -32268,7 +32265,7 @@
         <v>398</v>
       </c>
       <c r="CW6" s="112" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="CX6" s="1"/>
       <c r="CY6" s="1" t="b">
@@ -32287,7 +32284,7 @@
         <v>0</v>
       </c>
       <c r="DL6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="DM6">
         <v>178</v>
@@ -32304,7 +32301,7 @@
         <v>247</v>
       </c>
       <c r="DV6" s="112" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="DW6" s="1" t="b">
         <v>1</v>
@@ -32329,7 +32326,7 @@
         <v>0</v>
       </c>
       <c r="ER6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="ES6">
         <v>69</v>
@@ -32353,7 +32350,7 @@
         <v>247</v>
       </c>
       <c r="FJ6" s="112" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="FK6" s="1"/>
       <c r="FL6" s="1" t="b">
@@ -32364,7 +32361,7 @@
         <v>1</v>
       </c>
       <c r="FP6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="FQ6">
         <v>65</v>
@@ -32381,7 +32378,7 @@
         <v>247</v>
       </c>
       <c r="FZ6" s="112" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="GA6" s="1"/>
       <c r="GB6" s="1" t="b">
@@ -32392,7 +32389,7 @@
         <v>1</v>
       </c>
       <c r="GF6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="GG6">
         <v>59</v>
@@ -32411,7 +32408,7 @@
         <v>393</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F7" s="72"/>
       <c r="G7" s="80" t="b">
@@ -32428,7 +32425,7 @@
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="T7">
         <v>4</v>
@@ -32447,7 +32444,7 @@
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AJ7">
         <v>6</v>
@@ -32459,7 +32456,7 @@
         <v>1</v>
       </c>
       <c r="AQ7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AR7">
         <v>6</v>
@@ -32483,7 +32480,7 @@
         <v>247</v>
       </c>
       <c r="BI7" s="112" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1" t="b">
@@ -32519,7 +32516,7 @@
         <v>157</v>
       </c>
       <c r="CO7" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="CP7" s="1" t="b">
         <v>1</v>
@@ -32531,10 +32528,10 @@
       </c>
       <c r="CU7" s="72"/>
       <c r="CV7" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="CW7" s="112" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="CX7" s="1"/>
       <c r="CY7" s="1" t="b">
@@ -32548,17 +32545,17 @@
         <v>10</v>
       </c>
       <c r="DD7" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="DH7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="DI7">
         <f>IFERROR((DI4/(DI4+DI5)),1)</f>
         <v>1</v>
       </c>
       <c r="DL7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="DM7">
         <v>6</v>
@@ -32572,14 +32569,14 @@
       </c>
       <c r="DT7" s="74"/>
       <c r="DU7" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="DV7" s="112" t="s">
         <v>503</v>
-      </c>
-      <c r="DV7" s="112" t="s">
-        <v>504</v>
       </c>
       <c r="DW7" s="1"/>
       <c r="DX7" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="DY7" s="1"/>
       <c r="DZ7" s="1" t="b">
@@ -32589,10 +32586,10 @@
         <v>10</v>
       </c>
       <c r="EC7" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="EG7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="EH7">
         <f>IFERROR((EH4/(EH4+EH5)),1)</f>
@@ -32602,17 +32599,17 @@
         <v>10</v>
       </c>
       <c r="EK7" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="EO7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="EP7">
         <f>IFERROR((EP4/(EP4+EP5)),1)</f>
         <v>1</v>
       </c>
       <c r="ER7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="ES7">
         <v>6</v>
@@ -32628,17 +32625,17 @@
         <v>10</v>
       </c>
       <c r="FA7" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="FE7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="FF7">
         <f>IFERROR((FF4/(FF4+FF5)),1)</f>
         <v>0</v>
       </c>
       <c r="FH7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="FI7">
         <v>65</v>
@@ -32651,7 +32648,7 @@
         <v>3</v>
       </c>
       <c r="FP7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="FQ7">
         <v>6</v>
@@ -32668,7 +32665,7 @@
         <v>129</v>
       </c>
       <c r="FZ7" s="112" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="GA7" s="1"/>
       <c r="GB7" s="1" t="b">
@@ -32679,7 +32676,7 @@
         <v>0</v>
       </c>
       <c r="GF7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="GG7">
         <v>9</v>
@@ -32698,7 +32695,7 @@
         <v>395</v>
       </c>
       <c r="E8" s="84" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F8" s="72"/>
       <c r="G8" s="80" t="b">
@@ -32708,7 +32705,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -32721,7 +32718,7 @@
         <v>0</v>
       </c>
       <c r="AF8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG8">
         <f>(AG5/(AG5+AG6))</f>
@@ -32745,17 +32742,17 @@
         <v>10</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BD8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BE8">
         <f>(BE5/(BE5+BE6))</f>
         <v>0.5</v>
       </c>
       <c r="BG8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="BH8">
         <v>65</v>
@@ -32771,10 +32768,10 @@
         <v>10</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BT8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BU8">
         <f>IFERROR((BU5/(BU5+BU6)),1)</f>
@@ -32784,10 +32781,10 @@
         <v>10</v>
       </c>
       <c r="BX8" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="CB8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="CC8">
         <f>IFERROR((CC5/(CC5+CC6)),1)</f>
@@ -32797,10 +32794,10 @@
         <v>10</v>
       </c>
       <c r="CF8" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="CJ8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="CK8">
         <f>IFERROR((CK5/(CK5+CK6)),1)</f>
@@ -32811,7 +32808,7 @@
         <v>163</v>
       </c>
       <c r="CO8" s="112" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="CP8" s="1" t="b">
         <v>1</v>
@@ -32826,7 +32823,7 @@
         <v>66</v>
       </c>
       <c r="CW8" s="112" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="CX8" s="1" t="b">
         <v>1</v>
@@ -32837,7 +32834,7 @@
         <v>1</v>
       </c>
       <c r="DH8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="DI8">
         <f>IFERROR((DI4/(DI4+DI6)), 1)</f>
@@ -32851,7 +32848,7 @@
         <v>0</v>
       </c>
       <c r="DT8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="DU8">
         <v>92</v>
@@ -32867,17 +32864,17 @@
         <v>141</v>
       </c>
       <c r="ED8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="EG8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="EH8">
         <f>IFERROR((EH4/(EH4+EH6)), 1)</f>
         <v>1</v>
       </c>
       <c r="EO8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="EP8">
         <f>IFERROR((EP4/(EP4+EP6)), 1)</f>
@@ -32895,14 +32892,14 @@
         <v>53</v>
       </c>
       <c r="FE8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="FF8">
         <f>IFERROR((FF4/(FF4+FF6)), 1)</f>
         <v>1</v>
       </c>
       <c r="FH8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="FI8">
         <v>8</v>
@@ -32922,7 +32919,7 @@
         <v>0</v>
       </c>
       <c r="FX8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="FY8">
         <v>111</v>
@@ -32948,7 +32945,7 @@
         <v>398</v>
       </c>
       <c r="E9" s="84" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F9" s="72"/>
       <c r="G9" s="80" t="b">
@@ -32958,7 +32955,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Q9">
         <f>(Q5/(Q5+Q7))</f>
@@ -32968,10 +32965,10 @@
         <v>10</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="X9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Y9">
         <f>(Y6/(Y6+Y7))</f>
@@ -32981,10 +32978,10 @@
         <v>10</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AG9">
         <f>IFERROR((AG5/(AG5+AG7)), 1)</f>
@@ -32994,10 +32991,10 @@
         <v>10</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AN9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AO9">
         <f>(AO6/(AO6+AO7))</f>
@@ -33007,10 +33004,10 @@
         <v>10</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AW9">
         <f>(AW6/(AW6+AW7))</f>
@@ -33021,14 +33018,14 @@
         <v>82</v>
       </c>
       <c r="BD9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="BE9">
         <f>IFERROR((BE5/(BE5+BE7)), 1)</f>
         <v>1</v>
       </c>
       <c r="BG9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BH9">
         <v>10</v>
@@ -33043,7 +33040,7 @@
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
       <c r="BT9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="BU9">
         <f>IFERROR((BU5/(BU5+BU7)), 1)</f>
@@ -33052,7 +33049,7 @@
       <c r="BW9" s="1"/>
       <c r="BX9" s="1"/>
       <c r="CB9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="CC9">
         <f>IFERROR((CC5/(CC5+CC7)), 1)</f>
@@ -33061,7 +33058,7 @@
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
       <c r="CJ9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="CK9">
         <f>IFERROR((CK5/(CK5+CK7)), 1)</f>
@@ -33072,10 +33069,10 @@
         <v>165</v>
       </c>
       <c r="CO9" s="112" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="CP9" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="CQ9" s="1"/>
       <c r="CR9" s="1" t="b">
@@ -33089,7 +33086,7 @@
         <v>224</v>
       </c>
       <c r="CW9" s="112" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="CX9" s="1"/>
       <c r="CY9" s="1" t="b">
@@ -33103,17 +33100,17 @@
         <v>10</v>
       </c>
       <c r="DM9" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="DQ9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="DR9">
         <f>IFERROR((DR6/(DR6+DR7)),1)</f>
         <v>0.6</v>
       </c>
       <c r="DT9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="DU9">
         <v>10</v>
@@ -33129,10 +33126,10 @@
         <v>10</v>
       </c>
       <c r="ES9" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="EW9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="EX9">
         <f>IFERROR((EX6/(EX6+EX7)),1)</f>
@@ -33153,17 +33150,17 @@
         <v>10</v>
       </c>
       <c r="FQ9" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="FU9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="FV9">
         <f>IFERROR((FV6/(FV6+FV7)),1)</f>
         <v>1</v>
       </c>
       <c r="FX9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="FY9">
         <v>13</v>
@@ -33179,10 +33176,10 @@
         <v>10</v>
       </c>
       <c r="GG9" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="GK9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="GL9">
         <f>IFERROR((GL6/(GL6+GL7)),1)</f>
@@ -33195,7 +33192,7 @@
         <v>181</v>
       </c>
       <c r="E10" s="84" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F10" s="72" t="b">
         <v>1</v>
@@ -33209,7 +33206,7 @@
         <v>48</v>
       </c>
       <c r="X10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Y10">
         <f>(Y6/(Y6+Y8))</f>
@@ -33224,7 +33221,7 @@
         <v>41</v>
       </c>
       <c r="AN10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AO10">
         <f>IFERROR((AO6/(AO6+AO8)), 1)</f>
@@ -33235,7 +33232,7 @@
         <v>41</v>
       </c>
       <c r="AV10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AW10">
         <f>IFERROR((AW6/(AW6+AW8)), 1)</f>
@@ -33261,7 +33258,7 @@
         <v>167</v>
       </c>
       <c r="CO10" s="112" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="CP10" s="1" t="b">
         <v>1</v>
@@ -33273,10 +33270,10 @@
       </c>
       <c r="CU10" s="72"/>
       <c r="CV10" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="CW10" s="112" t="s">
         <v>478</v>
-      </c>
-      <c r="CW10" s="112" t="s">
-        <v>479</v>
       </c>
       <c r="CX10" s="1"/>
       <c r="CY10" s="1" t="b">
@@ -33291,7 +33288,7 @@
         <v>137</v>
       </c>
       <c r="DQ10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="DR10">
         <f>IFERROR((DR6/(DR6+DR8)), 1)</f>
@@ -33309,7 +33306,7 @@
         <v>50</v>
       </c>
       <c r="EW10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="EX10">
         <f>IFERROR((EX6/(EX6+EX8)), 1)</f>
@@ -33319,17 +33316,17 @@
         <v>10</v>
       </c>
       <c r="FI10" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="FM10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="FN10">
         <f>IFERROR((FN7/(FN7+FN8)),1)</f>
         <v>1</v>
       </c>
       <c r="FU10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="FV10">
         <f>IFERROR((FV6/(FV6+FV8)), 1)</f>
@@ -33343,7 +33340,7 @@
         <v>1</v>
       </c>
       <c r="GK10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="GL10">
         <f>IFERROR((GL6/(GL6+GL8)), 1)</f>
@@ -33356,7 +33353,7 @@
         <v>400</v>
       </c>
       <c r="E11" s="84" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="80" t="b">
@@ -33377,10 +33374,10 @@
         <v>10</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BL11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BM11">
         <f>(BM8/(BM8+BM9))</f>
@@ -33391,7 +33388,7 @@
         <v>169</v>
       </c>
       <c r="CO11" s="112" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="CP11" s="1" t="b">
         <v>1</v>
@@ -33406,7 +33403,7 @@
         <v>68</v>
       </c>
       <c r="CW11" s="112" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="CX11" s="1" t="b">
         <v>1</v>
@@ -33423,10 +33420,10 @@
         <v>10</v>
       </c>
       <c r="DU11" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="DY11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="DZ11">
         <f>IFERROR((DZ8/(DZ8+DZ9)),1)</f>
@@ -33437,7 +33434,7 @@
         <v>55</v>
       </c>
       <c r="FM11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="FN11">
         <f>IFERROR((FN7/(FN7+FN9)), 1)</f>
@@ -33447,10 +33444,10 @@
         <v>10</v>
       </c>
       <c r="FY11" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="GC11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="GD11">
         <f>IFERROR((GD8/(GD8+GD9)),1)</f>
@@ -33463,7 +33460,7 @@
         <v>403</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F12" s="72"/>
       <c r="G12" s="80" t="b">
@@ -33475,14 +33472,14 @@
       <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
       <c r="BL12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="BM12">
         <f>IFERROR((BM8/(BM8+BM10)), 1)</f>
         <v>1</v>
       </c>
       <c r="CM12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="CN12">
         <v>213</v>
@@ -33499,7 +33496,7 @@
         <v>70</v>
       </c>
       <c r="CW12" s="112" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="CX12" s="1" t="b">
         <v>1</v>
@@ -33513,7 +33510,7 @@
         <v>40000000</v>
       </c>
       <c r="DY12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="DZ12">
         <f>IFERROR((DZ8/(DZ8+DZ10)), 1)</f>
@@ -33522,7 +33519,7 @@
       <c r="FX12" s="1"/>
       <c r="FY12" s="1"/>
       <c r="GC12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="GD12">
         <f>IFERROR((GD8/(GD8+GD10)), 1)</f>
@@ -33535,7 +33532,7 @@
         <v>183</v>
       </c>
       <c r="E13" s="84" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F13" s="72" t="b">
         <v>1</v>
@@ -33547,7 +33544,7 @@
       <c r="BG13" s="1"/>
       <c r="BH13" s="1"/>
       <c r="CM13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="CN13">
         <v>18</v>
@@ -33560,7 +33557,7 @@
         <v>2</v>
       </c>
       <c r="CU13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="CV13">
         <v>182</v>
@@ -33576,10 +33573,10 @@
     <row r="14" spans="3:199" ht="45">
       <c r="C14" s="72"/>
       <c r="D14" s="72" t="s">
+        <v>670</v>
+      </c>
+      <c r="E14" s="84" t="s">
         <v>671</v>
-      </c>
-      <c r="E14" s="84" t="s">
-        <v>672</v>
       </c>
       <c r="F14" s="72" t="b">
         <v>1</v>
@@ -33596,7 +33593,7 @@
         <v>3</v>
       </c>
       <c r="CU14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="CV14">
         <v>20</v>
@@ -33612,10 +33609,10 @@
     <row r="15" spans="3:199" ht="75">
       <c r="C15" s="72"/>
       <c r="D15" s="72" t="s">
+        <v>672</v>
+      </c>
+      <c r="E15" s="85" t="s">
         <v>673</v>
-      </c>
-      <c r="E15" s="85" t="s">
-        <v>674</v>
       </c>
       <c r="F15" s="72" t="b">
         <v>1</v>
@@ -33628,10 +33625,10 @@
         <v>10</v>
       </c>
       <c r="CN15" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="CR15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="CS15">
         <f>IFERROR((CS12/(CS12+CS13)),1)</f>
@@ -33651,7 +33648,7 @@
         <v>186</v>
       </c>
       <c r="E16" s="86" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F16" s="74" t="b">
         <v>1</v>
@@ -33666,7 +33663,7 @@
         <v>51</v>
       </c>
       <c r="CR16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="CS16">
         <f>IFERROR((CS12/(CS12+CS14)), 1)</f>
@@ -33676,10 +33673,10 @@
         <v>10</v>
       </c>
       <c r="CV16" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="CZ16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="DA16">
         <f>IFERROR((DA13/(DA13+DA14)),1)</f>
@@ -33688,7 +33685,7 @@
     </row>
     <row r="17" spans="3:105">
       <c r="C17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D17">
         <v>185</v>
@@ -33705,7 +33702,7 @@
         <v>63</v>
       </c>
       <c r="CZ17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="DA17">
         <f>IFERROR((DA13/(DA13+DA15)), 1)</f>
@@ -33714,7 +33711,7 @@
     </row>
     <row r="18" spans="3:105">
       <c r="C18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D18" cm="1">
         <f t="array" ref="D18">SUM(VALUE(MID(D3:D16, FIND("-", D3:D16) + 1, LEN(D3:D16))) - VALUE(LEFT(D3:D16, FIND("-", D3:D16) - 1)) + 1)</f>
@@ -33746,7 +33743,7 @@
     </row>
     <row r="20" spans="3:105">
       <c r="H20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I20">
         <f>(I17/(I17+I18))</f>
@@ -33759,7 +33756,7 @@
     </row>
     <row r="21" spans="3:105">
       <c r="H21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I21">
         <f>(I17/(I17+I19))</f>
@@ -33838,10 +33835,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="F3" s="70" t="s">
         <v>52</v>
@@ -33856,10 +33853,10 @@
         <v>3</v>
       </c>
       <c r="K3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="L3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="L3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="M3" s="70" t="s">
         <v>52</v>
@@ -33874,10 +33871,10 @@
         <v>3</v>
       </c>
       <c r="R3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="S3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="S3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="T3" s="70" t="s">
         <v>52</v>
@@ -33892,10 +33889,10 @@
         <v>3</v>
       </c>
       <c r="Y3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="Z3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="AA3" s="70" t="s">
         <v>52</v>
@@ -33910,10 +33907,10 @@
         <v>3</v>
       </c>
       <c r="AF3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="AG3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="AG3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="AH3" s="70" t="s">
         <v>52</v>
@@ -33928,10 +33925,10 @@
         <v>3</v>
       </c>
       <c r="AM3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="AN3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="AN3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="AO3" s="70" t="s">
         <v>52</v>
@@ -33946,10 +33943,10 @@
         <v>3</v>
       </c>
       <c r="AT3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="AU3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="AU3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="AV3" s="70" t="s">
         <v>52</v>
@@ -33964,10 +33961,10 @@
         <v>3</v>
       </c>
       <c r="BA3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="BB3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="BB3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="BC3" s="70" t="s">
         <v>52</v>
@@ -33981,7 +33978,7 @@
     </row>
     <row r="4" spans="3:57" ht="30">
       <c r="C4" s="91" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D4" s="92" t="s">
         <v>269</v>
@@ -33995,7 +33992,7 @@
       <c r="G4" s="92"/>
       <c r="H4" s="92"/>
       <c r="J4" s="91" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K4" s="92" t="s">
         <v>276</v>
@@ -34009,7 +34006,7 @@
       <c r="N4" s="92"/>
       <c r="O4" s="92"/>
       <c r="Q4" s="101" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="R4" s="91" t="s">
         <v>332</v>
@@ -34023,7 +34020,7 @@
       <c r="U4" s="92"/>
       <c r="V4" s="92"/>
       <c r="X4" s="91" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Y4" s="92" t="s">
         <v>297</v>
@@ -34037,7 +34034,7 @@
       <c r="AB4" s="92"/>
       <c r="AC4" s="92"/>
       <c r="AE4" s="91" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AF4" s="92" t="s">
         <v>267</v>
@@ -34051,7 +34048,7 @@
       <c r="AI4" s="92"/>
       <c r="AJ4" s="92"/>
       <c r="AL4" s="91" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AM4" s="92" t="s">
         <v>152</v>
@@ -34065,7 +34062,7 @@
       <c r="AP4" s="92"/>
       <c r="AQ4" s="92"/>
       <c r="AS4" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AT4" s="92" t="s">
         <v>269</v>
@@ -34079,7 +34076,7 @@
       <c r="AW4" s="92"/>
       <c r="AX4" s="92"/>
       <c r="AZ4" s="91" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="BA4" s="92" t="s">
         <v>267</v>
@@ -34151,7 +34148,7 @@
       </c>
       <c r="AH5" s="73"/>
       <c r="AI5" s="73" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AJ5" s="73"/>
       <c r="AL5" s="80"/>
@@ -34171,7 +34168,7 @@
         <v>304</v>
       </c>
       <c r="AU5" s="90" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AV5" s="76"/>
       <c r="AW5" s="76" t="b">
@@ -34368,10 +34365,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="68" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="95" t="s">
         <v>564</v>
-      </c>
-      <c r="E3" s="95" t="s">
-        <v>565</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>52</v>
@@ -34386,10 +34383,10 @@
         <v>3</v>
       </c>
       <c r="K3" s="68" t="s">
+        <v>563</v>
+      </c>
+      <c r="L3" s="95" t="s">
         <v>564</v>
-      </c>
-      <c r="L3" s="95" t="s">
-        <v>565</v>
       </c>
       <c r="M3" s="79" t="s">
         <v>52</v>
@@ -34404,10 +34401,10 @@
         <v>3</v>
       </c>
       <c r="R3" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="S3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="S3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="T3" s="71" t="s">
         <v>52</v>
@@ -34422,10 +34419,10 @@
         <v>3</v>
       </c>
       <c r="Y3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="Z3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="AA3" s="71" t="s">
         <v>52</v>
@@ -34440,10 +34437,10 @@
         <v>3</v>
       </c>
       <c r="AF3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="AG3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="AG3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="AH3" s="71" t="s">
         <v>52</v>
@@ -34458,10 +34455,10 @@
         <v>3</v>
       </c>
       <c r="AM3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="AN3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="AN3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="AO3" s="71" t="s">
         <v>52</v>
@@ -34476,10 +34473,10 @@
         <v>3</v>
       </c>
       <c r="AT3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="AU3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="AU3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="AV3" s="71" t="s">
         <v>52</v>
@@ -34494,10 +34491,10 @@
         <v>3</v>
       </c>
       <c r="BA3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="BB3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="BB3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="BC3" s="71" t="s">
         <v>52</v>
@@ -34512,10 +34509,10 @@
         <v>3</v>
       </c>
       <c r="BH3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="BI3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="BI3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="BJ3" s="71" t="s">
         <v>52</v>
@@ -34530,10 +34527,10 @@
         <v>3</v>
       </c>
       <c r="BO3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="BP3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="BP3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="BQ3" s="71" t="s">
         <v>52</v>
@@ -34548,10 +34545,10 @@
         <v>3</v>
       </c>
       <c r="BV3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="BW3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="BW3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="BX3" s="71" t="s">
         <v>52</v>
@@ -34566,10 +34563,10 @@
         <v>3</v>
       </c>
       <c r="CC3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="CD3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="CD3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="CE3" s="71" t="s">
         <v>52</v>
@@ -34584,10 +34581,10 @@
         <v>3</v>
       </c>
       <c r="CJ3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="CK3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="CK3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="CL3" s="71" t="s">
         <v>52</v>
@@ -34602,10 +34599,10 @@
         <v>3</v>
       </c>
       <c r="CQ3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="CR3" s="96" t="s">
         <v>564</v>
-      </c>
-      <c r="CR3" s="96" t="s">
-        <v>565</v>
       </c>
       <c r="CS3" s="71" t="s">
         <v>52</v>
@@ -34619,7 +34616,7 @@
     </row>
     <row r="4" spans="3:99" ht="60">
       <c r="C4" s="97" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="100"/>
@@ -34627,7 +34624,7 @@
       <c r="G4" s="98"/>
       <c r="H4" s="98"/>
       <c r="J4" s="97" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K4" s="106"/>
       <c r="L4" s="100"/>
@@ -34635,7 +34632,7 @@
       <c r="N4" s="98"/>
       <c r="O4" s="98"/>
       <c r="Q4" s="91" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R4" s="92" t="s">
         <v>289</v>
@@ -34649,13 +34646,13 @@
       <c r="U4" s="92"/>
       <c r="V4" s="92"/>
       <c r="X4" s="91" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Y4" s="92" t="s">
         <v>269</v>
       </c>
       <c r="Z4" s="94" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA4" s="92"/>
       <c r="AB4" s="92" t="b">
@@ -34663,7 +34660,7 @@
       </c>
       <c r="AC4" s="92"/>
       <c r="AE4" s="69" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AF4" s="104"/>
       <c r="AG4" s="98"/>
@@ -34671,27 +34668,27 @@
       <c r="AI4" s="98"/>
       <c r="AJ4" s="98"/>
       <c r="AL4" s="101" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM4" s="115">
         <v>43</v>
       </c>
       <c r="AN4" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AO4" s="91"/>
       <c r="AP4" s="92" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AQ4" s="92"/>
       <c r="AS4" s="91" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AT4" s="92" t="s">
         <v>308</v>
       </c>
       <c r="AU4" s="94" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AV4" s="92" t="b">
         <v>1</v>
@@ -34699,13 +34696,13 @@
       <c r="AW4" s="92"/>
       <c r="AX4" s="92"/>
       <c r="AZ4" s="69" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="BA4" s="98" t="s">
         <v>282</v>
       </c>
       <c r="BB4" s="100" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="BC4" s="98" t="b">
         <v>1</v>
@@ -34713,7 +34710,7 @@
       <c r="BD4" s="98"/>
       <c r="BE4" s="98"/>
       <c r="BG4" s="97" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="BH4" s="97"/>
       <c r="BI4" s="97"/>
@@ -34721,7 +34718,7 @@
       <c r="BK4" s="97"/>
       <c r="BL4" s="69"/>
       <c r="BN4" s="69" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BO4" s="98"/>
       <c r="BP4" s="98"/>
@@ -34729,7 +34726,7 @@
       <c r="BR4" s="98"/>
       <c r="BS4" s="98"/>
       <c r="BU4" s="69" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BV4" s="98"/>
       <c r="BW4" s="98"/>
@@ -34737,7 +34734,7 @@
       <c r="BY4" s="98"/>
       <c r="BZ4" s="98"/>
       <c r="CB4" s="97" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="CC4" s="97"/>
       <c r="CD4" s="97"/>
@@ -34745,27 +34742,27 @@
       <c r="CF4" s="69"/>
       <c r="CG4" s="98"/>
       <c r="CI4" s="91" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="CJ4" s="108">
         <v>51</v>
       </c>
       <c r="CK4" s="94" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="CL4" s="92"/>
       <c r="CM4" s="92" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="CN4" s="92"/>
       <c r="CP4" s="101" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="CQ4" s="91" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="CR4" s="94" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="CS4" s="92"/>
       <c r="CT4" s="92" t="b">
@@ -34779,7 +34776,7 @@
         <v>180</v>
       </c>
       <c r="S5" s="90" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T5" s="76" t="b">
         <v>1</v>
@@ -34797,7 +34794,7 @@
         <v>258</v>
       </c>
       <c r="AN5" s="86" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AO5" s="81" t="b">
         <v>1</v>
@@ -34823,7 +34820,7 @@
         <v>311</v>
       </c>
       <c r="CK5" s="89" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CL5" s="73"/>
       <c r="CM5" s="73" t="b">
@@ -34832,10 +34829,10 @@
       <c r="CN5" s="73"/>
       <c r="CP5" s="72"/>
       <c r="CQ5" s="80" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="CR5" s="89" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="CS5" s="73"/>
       <c r="CT5" s="73" t="b">
@@ -34849,7 +34846,7 @@
         <v>311</v>
       </c>
       <c r="AU6" s="89" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AV6" s="73" t="b">
         <v>1</v>
@@ -34858,10 +34855,10 @@
       <c r="AX6" s="73"/>
       <c r="CI6" s="81"/>
       <c r="CJ6" s="76" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="CK6" s="90" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="CL6" s="76"/>
       <c r="CM6" s="76" t="b">
@@ -34873,7 +34870,7 @@
         <v>152</v>
       </c>
       <c r="CR6" s="90" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="CS6" s="76"/>
       <c r="CT6" s="76" t="b">
@@ -34887,7 +34884,7 @@
         <v>315</v>
       </c>
       <c r="AU7" s="89" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AV7" s="73" t="b">
         <v>1</v>
@@ -34901,7 +34898,7 @@
         <v>291</v>
       </c>
       <c r="AU8" s="89" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AV8" s="73" t="b">
         <v>1</v>
@@ -34917,7 +34914,7 @@
         <v>90</v>
       </c>
       <c r="AU9" s="89" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AV9" s="73" t="b">
         <v>1</v>
@@ -34928,10 +34925,10 @@
     <row r="10" spans="3:99" ht="30">
       <c r="AS10" s="80"/>
       <c r="AT10" s="73" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AU10" s="89" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AV10" s="73" t="b">
         <v>1</v>
@@ -34945,7 +34942,7 @@
         <v>320</v>
       </c>
       <c r="AU11" s="89" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AV11" s="73" t="b">
         <v>1</v>
@@ -34959,7 +34956,7 @@
         <v>66</v>
       </c>
       <c r="AU12" s="89" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AV12" s="73" t="b">
         <v>1</v>
@@ -34973,7 +34970,7 @@
         <v>400</v>
       </c>
       <c r="AU13" s="90" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AV13" s="76" t="b">
         <v>1</v>
@@ -35062,10 +35059,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="F3" s="70" t="s">
         <v>52</v>
@@ -35080,10 +35077,10 @@
         <v>3</v>
       </c>
       <c r="K3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="L3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="L3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="M3" s="70" t="s">
         <v>52</v>
@@ -35098,10 +35095,10 @@
         <v>3</v>
       </c>
       <c r="R3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="S3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="S3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="T3" s="70" t="s">
         <v>52</v>
@@ -35116,10 +35113,10 @@
         <v>3</v>
       </c>
       <c r="Y3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="Z3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="AA3" s="70" t="s">
         <v>52</v>
@@ -35134,10 +35131,10 @@
         <v>3</v>
       </c>
       <c r="AF3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="AG3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="AG3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="AH3" s="70" t="s">
         <v>52</v>
@@ -35152,10 +35149,10 @@
         <v>3</v>
       </c>
       <c r="AM3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="AN3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="AN3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="AO3" s="70" t="s">
         <v>52</v>
@@ -35170,10 +35167,10 @@
         <v>3</v>
       </c>
       <c r="AT3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="AU3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="AU3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="AV3" s="70" t="s">
         <v>52</v>
@@ -35188,10 +35185,10 @@
         <v>3</v>
       </c>
       <c r="BA3" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="BB3" s="99" t="s">
         <v>564</v>
-      </c>
-      <c r="BB3" s="99" t="s">
-        <v>565</v>
       </c>
       <c r="BC3" s="70" t="s">
         <v>52</v>
@@ -35205,7 +35202,7 @@
     </row>
     <row r="4" spans="3:57" ht="30">
       <c r="C4" s="101" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D4" s="91" t="s">
         <v>269</v>
@@ -35219,7 +35216,7 @@
       <c r="G4" s="92"/>
       <c r="H4" s="92"/>
       <c r="J4" s="91" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K4" s="92" t="s">
         <v>276</v>
@@ -35233,7 +35230,7 @@
       <c r="N4" s="92"/>
       <c r="O4" s="92"/>
       <c r="Q4" s="91" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="R4" s="92" t="s">
         <v>332</v>
@@ -35247,13 +35244,13 @@
       <c r="U4" s="92"/>
       <c r="V4" s="92"/>
       <c r="X4" s="101" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Y4" s="101" t="s">
+        <v>699</v>
+      </c>
+      <c r="Z4" s="116" t="s">
         <v>700</v>
-      </c>
-      <c r="Z4" s="116" t="s">
-        <v>701</v>
       </c>
       <c r="AA4" s="101" t="b">
         <v>1</v>
@@ -35261,7 +35258,7 @@
       <c r="AB4" s="101"/>
       <c r="AC4" s="91"/>
       <c r="AE4" s="101" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AF4" s="101" t="s">
         <v>267</v>
@@ -35275,13 +35272,13 @@
       <c r="AI4" s="91"/>
       <c r="AJ4" s="92"/>
       <c r="AL4" s="91" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AM4" s="92" t="s">
         <v>152</v>
       </c>
       <c r="AN4" s="94" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AO4" s="92" t="b">
         <v>1</v>
@@ -35289,7 +35286,7 @@
       <c r="AP4" s="92"/>
       <c r="AQ4" s="92"/>
       <c r="AS4" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AT4" s="92" t="s">
         <v>269</v>
@@ -35303,7 +35300,7 @@
       <c r="AW4" s="92"/>
       <c r="AX4" s="92"/>
       <c r="AZ4" s="91" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="BA4" s="92" t="s">
         <v>267</v>
@@ -35323,7 +35320,7 @@
         <v>267</v>
       </c>
       <c r="E5" s="89" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F5" s="73" t="b">
         <v>1</v>
@@ -35332,10 +35329,10 @@
       <c r="H5" s="73"/>
       <c r="J5" s="81"/>
       <c r="K5" s="76" t="s">
+        <v>703</v>
+      </c>
+      <c r="L5" s="90" t="s">
         <v>704</v>
-      </c>
-      <c r="L5" s="90" t="s">
-        <v>705</v>
       </c>
       <c r="M5" s="76" t="b">
         <v>1</v>
@@ -35358,10 +35355,10 @@
       </c>
       <c r="X5" s="72"/>
       <c r="Y5" s="120" t="s">
+        <v>705</v>
+      </c>
+      <c r="Z5" s="84" t="s">
         <v>706</v>
-      </c>
-      <c r="Z5" s="84" t="s">
-        <v>707</v>
       </c>
       <c r="AA5" s="72" t="b">
         <v>1</v>
@@ -35379,7 +35376,7 @@
       </c>
       <c r="AH5" s="72"/>
       <c r="AI5" s="80" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AJ5" s="73"/>
       <c r="AL5" s="80"/>
@@ -35387,7 +35384,7 @@
         <v>395</v>
       </c>
       <c r="AN5" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AO5" s="73" t="b">
         <v>1</v>
@@ -35396,10 +35393,10 @@
       <c r="AQ5" s="73"/>
       <c r="AS5" s="80"/>
       <c r="AT5" s="73" t="s">
+        <v>708</v>
+      </c>
+      <c r="AU5" s="89" t="s">
         <v>709</v>
-      </c>
-      <c r="AU5" s="89" t="s">
-        <v>710</v>
       </c>
       <c r="AV5" s="73"/>
       <c r="AW5" s="73" t="b">
@@ -35422,7 +35419,7 @@
     <row r="6" spans="3:57" ht="30">
       <c r="C6" s="72"/>
       <c r="D6" s="80" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E6" s="89" t="s">
         <v>345</v>
@@ -35452,11 +35449,11 @@
         <v>72</v>
       </c>
       <c r="Z6" s="86" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AA6" s="74"/>
       <c r="AB6" s="74" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AC6" s="81"/>
       <c r="AE6" s="72"/>
@@ -35464,7 +35461,7 @@
         <v>149</v>
       </c>
       <c r="AG6" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AH6" s="72" t="b">
         <v>1</v>
@@ -35475,10 +35472,10 @@
       </c>
       <c r="AL6" s="81"/>
       <c r="AM6" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="AN6" s="90" t="s">
         <v>712</v>
-      </c>
-      <c r="AN6" s="90" t="s">
-        <v>713</v>
       </c>
       <c r="AO6" s="76" t="b">
         <v>1</v>
@@ -35490,7 +35487,7 @@
         <v>155</v>
       </c>
       <c r="AU6" s="89" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AV6" s="73" t="b">
         <v>1</v>
@@ -35502,10 +35499,10 @@
     <row r="7" spans="3:57" ht="30">
       <c r="C7" s="72"/>
       <c r="D7" s="80" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F7" s="73" t="b">
         <v>1</v>
@@ -35515,10 +35512,10 @@
       <c r="L7" s="67"/>
       <c r="Q7" s="80"/>
       <c r="R7" s="73" t="s">
+        <v>715</v>
+      </c>
+      <c r="S7" s="89" t="s">
         <v>716</v>
-      </c>
-      <c r="S7" s="89" t="s">
-        <v>717</v>
       </c>
       <c r="T7" s="73" t="b">
         <v>1</v>
@@ -35530,23 +35527,23 @@
       <c r="Z7" s="67"/>
       <c r="AE7" s="72"/>
       <c r="AF7" s="120" t="s">
+        <v>717</v>
+      </c>
+      <c r="AG7" s="84" t="s">
         <v>718</v>
-      </c>
-      <c r="AG7" s="84" t="s">
-        <v>719</v>
       </c>
       <c r="AH7" s="72"/>
       <c r="AI7" s="80" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AJ7" s="73"/>
       <c r="AN7" s="67"/>
       <c r="AS7" s="81"/>
       <c r="AT7" s="76" t="s">
+        <v>719</v>
+      </c>
+      <c r="AU7" s="90" t="s">
         <v>720</v>
-      </c>
-      <c r="AU7" s="90" t="s">
-        <v>721</v>
       </c>
       <c r="AV7" s="76"/>
       <c r="AW7" s="76" t="b">
@@ -35558,10 +35555,10 @@
     <row r="8" spans="3:57" ht="30">
       <c r="C8" s="72"/>
       <c r="D8" s="80" t="s">
+        <v>721</v>
+      </c>
+      <c r="E8" s="89" t="s">
         <v>722</v>
-      </c>
-      <c r="E8" s="89" t="s">
-        <v>723</v>
       </c>
       <c r="F8" s="73" t="b">
         <v>1</v>
@@ -35574,7 +35571,7 @@
         <v>90</v>
       </c>
       <c r="S8" s="89" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="T8" s="73" t="b">
         <v>1</v>
@@ -35587,11 +35584,11 @@
         <v>109</v>
       </c>
       <c r="AG8" s="86" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AH8" s="74"/>
       <c r="AI8" s="81" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AJ8" s="76"/>
       <c r="AN8" s="67"/>
@@ -35600,10 +35597,10 @@
     <row r="9" spans="3:57" ht="30">
       <c r="C9" s="72"/>
       <c r="D9" s="80" t="s">
+        <v>724</v>
+      </c>
+      <c r="E9" s="89" t="s">
         <v>725</v>
-      </c>
-      <c r="E9" s="89" t="s">
-        <v>726</v>
       </c>
       <c r="F9" s="73" t="b">
         <v>1</v>
@@ -35613,10 +35610,10 @@
       <c r="L9" s="67"/>
       <c r="Q9" s="81"/>
       <c r="R9" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="S9" s="90" t="s">
         <v>727</v>
-      </c>
-      <c r="S9" s="90" t="s">
-        <v>728</v>
       </c>
       <c r="T9" s="76" t="b">
         <v>1</v>
@@ -35632,10 +35629,10 @@
     <row r="10" spans="3:57" ht="30">
       <c r="C10" s="72"/>
       <c r="D10" s="80" t="s">
+        <v>728</v>
+      </c>
+      <c r="E10" s="89" t="s">
         <v>729</v>
-      </c>
-      <c r="E10" s="89" t="s">
-        <v>730</v>
       </c>
       <c r="F10" s="73" t="b">
         <v>1</v>
@@ -35649,7 +35646,7 @@
         <v>276</v>
       </c>
       <c r="E11" s="90" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F11" s="76" t="b">
         <v>1</v>
@@ -35661,7 +35658,7 @@
     </row>
     <row r="18" spans="21:21">
       <c r="U18" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/out/Analysis/Dataset_Labelling.xlsx
+++ b/out/Analysis/Dataset_Labelling.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailuc-my.sharepoint.com/personal/wang2ba_ucmail_uc_edu/Documents/group/students/prateek_kharangate/fault_hunter_fall_2023/Labeling/Assembly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B1114F4-6D94-4971-B3CD-6007C9007519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3598E31-7E60-47D4-85CC-02ADE65FC36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3456,7 +3456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -3892,9 +3892,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -10402,11 +10399,11 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" s="180"/>
-      <c r="B1" s="231" t="s">
+      <c r="B1" s="230" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="232"/>
-      <c r="D1" s="233"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="232"/>
       <c r="E1" s="158"/>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
@@ -10422,21 +10419,21 @@
       <c r="O1" s="185"/>
       <c r="P1" s="205"/>
       <c r="R1" s="151"/>
-      <c r="S1" s="234"/>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
+      <c r="S1" s="233"/>
+      <c r="T1" s="233"/>
+      <c r="U1" s="233"/>
       <c r="V1" s="151"/>
       <c r="W1" s="151"/>
       <c r="X1" s="151"/>
       <c r="Y1" s="151"/>
       <c r="Z1" s="151"/>
       <c r="AA1" s="151"/>
-      <c r="AB1" s="234"/>
-      <c r="AC1" s="234"/>
-      <c r="AD1" s="234"/>
-      <c r="AE1" s="234"/>
-      <c r="AF1" s="234"/>
-      <c r="AG1" s="234"/>
+      <c r="AB1" s="233"/>
+      <c r="AC1" s="233"/>
+      <c r="AD1" s="233"/>
+      <c r="AE1" s="233"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="233"/>
     </row>
     <row r="2" spans="1:33" s="126" customFormat="1">
       <c r="A2" s="165" t="s">
@@ -19336,25 +19333,25 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="180"/>
-      <c r="B1" s="231" t="s">
+      <c r="B1" s="230" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="232"/>
-      <c r="D1" s="233"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="232"/>
       <c r="E1" s="154"/>
       <c r="F1" s="158"/>
       <c r="G1" s="158"/>
       <c r="H1" s="158"/>
       <c r="I1" s="196"/>
       <c r="J1" s="151"/>
-      <c r="K1" s="231" t="s">
+      <c r="K1" s="230" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="232"/>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="232"/>
-      <c r="P1" s="233"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="231"/>
+      <c r="O1" s="231"/>
+      <c r="P1" s="232"/>
     </row>
     <row r="2" spans="1:24" s="126" customFormat="1">
       <c r="A2" s="165" t="s">
@@ -29119,7 +29116,7 @@
       <c r="M194" s="109" t="s">
         <v>560</v>
       </c>
-      <c r="N194" s="230" t="s">
+      <c r="N194" s="89" t="s">
         <v>561</v>
       </c>
       <c r="P194" s="67" t="b">
